--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B0B87-9CE2-4302-8C9F-7A6F25BEDBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32BF8D-7584-45AE-858C-A7C4ACB9B919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6003,13 +6003,13 @@
     <t>P[r]+N[r]</t>
   </si>
   <si>
-    <t>NRE/RE BP</t>
-  </si>
-  <si>
     <t>P[r]+S[r]</t>
   </si>
   <si>
     <t>P[r]+N[o]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRE/RE </t>
   </si>
 </sst>
 </file>
@@ -6717,10 +6717,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="D444" sqref="D444"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10354,7 +10354,7 @@
       <c r="S78" s="14"/>
       <c r="T78" s="14"/>
       <c r="U78" s="57" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="V78" s="47"/>
     </row>
@@ -21968,7 +21968,7 @@
         <v>1888</v>
       </c>
       <c r="T377" s="7" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="U377" s="7"/>
       <c r="V377" s="47"/>
@@ -22319,7 +22319,7 @@
         <v>1888</v>
       </c>
       <c r="T386" s="7" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="U386" s="7"/>
       <c r="V386" s="47"/>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="1993">
   <si>
     <t>PS</t>
   </si>
@@ -6713,10 +6713,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2129" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1778" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2139" sqref="N2139"/>
+      <selection pane="bottomLeft" activeCell="N1795" sqref="N1795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -30419,7 +30419,9 @@
       <c r="P594" s="7"/>
       <c r="Q594" s="7"/>
       <c r="R594" s="7"/>
-      <c r="S594" s="7"/>
+      <c r="S594" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="T594" s="7"/>
       <c r="U594" s="7"/>
       <c r="V594" s="47"/>
@@ -31973,7 +31975,9 @@
       <c r="P634" s="7"/>
       <c r="Q634" s="7"/>
       <c r="R634" s="7"/>
-      <c r="S634" s="7"/>
+      <c r="S634" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="T634" s="7"/>
       <c r="U634" s="7"/>
       <c r="V634" s="47"/>
@@ -32581,7 +32585,9 @@
       <c r="P650" s="7"/>
       <c r="Q650" s="7"/>
       <c r="R650" s="7"/>
-      <c r="S650" s="7"/>
+      <c r="S650" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="T650" s="7"/>
       <c r="U650" s="7"/>
       <c r="V650" s="47"/>
@@ -34487,6 +34493,9 @@
         <v>1901</v>
       </c>
       <c r="R703" s="7"/>
+      <c r="S703" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V703" s="47"/>
     </row>
     <row r="704" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34631,6 +34640,9 @@
       <c r="P707" s="7"/>
       <c r="Q707" s="7"/>
       <c r="R707" s="7"/>
+      <c r="S707" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V707" s="47"/>
     </row>
     <row r="708" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40601,6 +40613,9 @@
       <c r="P884" s="7"/>
       <c r="Q884" s="7"/>
       <c r="R884" s="7"/>
+      <c r="S884" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V884" s="47"/>
     </row>
     <row r="885" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53169,6 +53184,9 @@
       <c r="P1262" s="7"/>
       <c r="Q1262" s="7"/>
       <c r="R1262" s="7"/>
+      <c r="S1262" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1262" s="47"/>
     </row>
     <row r="1263" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53668,6 +53686,9 @@
       <c r="P1276" s="7"/>
       <c r="Q1276" s="7"/>
       <c r="R1276" s="7"/>
+      <c r="S1276" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1276" s="47"/>
     </row>
     <row r="1277" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61933,6 +61954,9 @@
       <c r="P1513" s="7"/>
       <c r="Q1513" s="7"/>
       <c r="R1513" s="7"/>
+      <c r="S1513" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1513" s="47"/>
     </row>
     <row r="1514" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65072,6 +65096,9 @@
       <c r="N1612" s="47" t="s">
         <v>963</v>
       </c>
+      <c r="S1612" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1612" s="47"/>
     </row>
     <row r="1613" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69397,6 +69424,9 @@
       <c r="N1780" s="47" t="s">
         <v>963</v>
       </c>
+      <c r="S1780" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1780" s="47"/>
     </row>
     <row r="1781" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69817,6 +69847,9 @@
       </c>
       <c r="N1795" s="47" t="s">
         <v>1039</v>
+      </c>
+      <c r="S1795" s="7" t="s">
+        <v>1899</v>
       </c>
       <c r="V1795" s="47"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6564" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6567" uniqueCount="1994">
   <si>
     <t>PS</t>
   </si>
@@ -6006,6 +6006,9 @@
   </si>
   <si>
     <t xml:space="preserve">NRE/RE </t>
+  </si>
+  <si>
+    <t>nitya not applicable</t>
   </si>
 </sst>
 </file>
@@ -6226,7 +6229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6429,6 +6432,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6713,10 +6719,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1778" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1795" sqref="N1795"/>
+      <selection pane="bottomLeft" activeCell="T2138" sqref="T2138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -74100,6 +74106,10 @@
       <c r="N1955" s="47" t="s">
         <v>94</v>
       </c>
+      <c r="T1955" s="70" t="s">
+        <v>1993</v>
+      </c>
+      <c r="U1955" s="58"/>
       <c r="V1955" s="47"/>
     </row>
     <row r="1956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74333,6 +74343,9 @@
       <c r="N1964" s="47" t="s">
         <v>94</v>
       </c>
+      <c r="T1964" s="70" t="s">
+        <v>1993</v>
+      </c>
       <c r="V1964" s="47"/>
     </row>
     <row r="1965" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78700,6 +78713,9 @@
       </c>
       <c r="N2130" s="47" t="s">
         <v>1219</v>
+      </c>
+      <c r="S2130" s="7" t="s">
+        <v>1899</v>
       </c>
       <c r="V2130" s="47"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$C$1:$V$2294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$XES$2294</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6567" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6568" uniqueCount="1994">
   <si>
     <t>PS</t>
   </si>
@@ -6719,10 +6719,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A999" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="T2138" sqref="T2138"/>
+      <selection pane="bottomLeft" activeCell="S1008" sqref="S1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -44755,6 +44755,9 @@
       <c r="P1008" s="7"/>
       <c r="Q1008" s="7"/>
       <c r="R1008" s="7"/>
+      <c r="S1008" s="7" t="s">
+        <v>1899</v>
+      </c>
       <c r="V1008" s="47"/>
     </row>
     <row r="1009" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -83073,6 +83076,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:XES2294"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE3706E-5832-4D90-A985-F5F89A3F7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF7C35-0D4F-4C17-94A2-13413ADC4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6588" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1924">
   <si>
     <t>PS</t>
   </si>
@@ -5801,10 +5801,13 @@
     <t>PS-5.14</t>
   </si>
   <si>
-    <t>UA</t>
-  </si>
-  <si>
     <t>LE</t>
+  </si>
+  <si>
+    <t>UW%UA</t>
+  </si>
+  <si>
+    <t>P%N</t>
   </si>
 </sst>
 </file>
@@ -5978,7 +5981,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6012,6 +6015,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6239,9 +6248,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6265,6 +6271,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6549,10 +6558,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S1785" sqref="S1785"/>
+      <selection pane="bottomLeft" activeCell="O2289" sqref="O2289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7028,19 +7037,19 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="44" t="s">
@@ -7529,7 +7538,9 @@
       <c r="N12" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="76" t="s">
+        <v>1</v>
+      </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -22654,7 +22665,7 @@
     </row>
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="61"/>
-      <c r="D399" s="75" t="s">
+      <c r="D399" s="74" t="s">
         <v>1920</v>
       </c>
       <c r="E399" s="21"/>
@@ -22699,7 +22710,7 @@
     </row>
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="61"/>
-      <c r="D400" s="75" t="s">
+      <c r="D400" s="74" t="s">
         <v>1920</v>
       </c>
       <c r="E400" s="21"/>
@@ -22898,7 +22909,7 @@
     </row>
     <row r="405" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A405" s="61"/>
-      <c r="D405" s="76"/>
+      <c r="D405" s="75"/>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
@@ -29269,7 +29280,7 @@
         <f t="shared" si="26"/>
         <v>94</v>
       </c>
-      <c r="N568" s="72" t="s">
+      <c r="N568" s="71" t="s">
         <v>403</v>
       </c>
       <c r="O568" s="6"/>
@@ -29306,7 +29317,7 @@
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
-      <c r="N569" s="72" t="s">
+      <c r="N569" s="71" t="s">
         <v>522</v>
       </c>
       <c r="O569" s="6"/>
@@ -29314,10 +29325,10 @@
       <c r="Q569" s="7"/>
       <c r="R569" s="7"/>
       <c r="S569" s="7" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="T569" s="7" t="s">
-        <v>155</v>
+        <v>1923</v>
       </c>
       <c r="U569" s="7"/>
       <c r="V569" s="45"/>
@@ -29347,7 +29358,7 @@
         <f t="shared" si="26"/>
         <v>96</v>
       </c>
-      <c r="N570" s="72" t="s">
+      <c r="N570" s="71" t="s">
         <v>295</v>
       </c>
       <c r="O570" s="6"/>
@@ -29658,7 +29669,7 @@
         <f t="shared" si="26"/>
         <v>104</v>
       </c>
-      <c r="N578" s="72" t="s">
+      <c r="N578" s="71" t="s">
         <v>403</v>
       </c>
       <c r="O578" s="7"/>
@@ -29695,7 +29706,7 @@
         <f t="shared" si="26"/>
         <v>105</v>
       </c>
-      <c r="N579" s="72" t="s">
+      <c r="N579" s="71" t="s">
         <v>522</v>
       </c>
       <c r="O579" s="6"/>
@@ -29703,10 +29714,10 @@
       <c r="Q579" s="7"/>
       <c r="R579" s="7"/>
       <c r="S579" s="7" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="T579" s="7" t="s">
-        <v>155</v>
+        <v>1923</v>
       </c>
       <c r="U579" s="7"/>
       <c r="V579" s="45"/>
@@ -29736,7 +29747,7 @@
         <f t="shared" ref="M580:M643" si="29">+M579+1</f>
         <v>106</v>
       </c>
-      <c r="N580" s="72" t="s">
+      <c r="N580" s="71" t="s">
         <v>295</v>
       </c>
       <c r="O580" s="6"/>
@@ -34342,7 +34353,7 @@
         <f t="shared" si="32"/>
         <v>52</v>
       </c>
-      <c r="N703" s="67" t="s">
+      <c r="N703" s="57" t="s">
         <v>522</v>
       </c>
       <c r="O703" s="6"/>
@@ -34388,7 +34399,7 @@
         <f t="shared" si="32"/>
         <v>53</v>
       </c>
-      <c r="N704" s="67" t="s">
+      <c r="N704" s="57" t="s">
         <v>605</v>
       </c>
       <c r="O704" s="6" t="s">
@@ -34434,7 +34445,7 @@
         <f t="shared" si="32"/>
         <v>54</v>
       </c>
-      <c r="N705" s="67" t="s">
+      <c r="N705" s="57" t="s">
         <v>277</v>
       </c>
       <c r="O705" s="6"/>
@@ -34474,7 +34485,7 @@
         <f t="shared" si="32"/>
         <v>55</v>
       </c>
-      <c r="N706" s="67" t="s">
+      <c r="N706" s="57" t="s">
         <v>606</v>
       </c>
       <c r="O706" s="7"/>
@@ -59453,7 +59464,7 @@
       <c r="Q1445" s="7"/>
       <c r="R1445" s="7"/>
       <c r="S1445" s="7" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="T1445" s="7" t="s">
         <v>194</v>
@@ -73393,7 +73404,7 @@
       <c r="N1933" s="57" t="s">
         <v>1122</v>
       </c>
-      <c r="O1933" s="73"/>
+      <c r="O1933" s="72"/>
       <c r="S1933" s="7" t="s">
         <v>180</v>
       </c>
@@ -73427,8 +73438,8 @@
       <c r="N1934" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="O1934" s="73"/>
-      <c r="P1934" s="74" t="s">
+      <c r="O1934" s="72"/>
+      <c r="P1934" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V1934" s="45" t="s">
@@ -73987,7 +73998,7 @@
       <c r="N1955" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="T1955" s="68"/>
+      <c r="T1955" s="67"/>
       <c r="V1955" s="45"/>
     </row>
     <row r="1956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74221,7 +74232,7 @@
       <c r="N1964" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="T1964" s="68"/>
+      <c r="T1964" s="67"/>
       <c r="V1964" s="45"/>
     </row>
     <row r="1965" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77563,7 +77574,7 @@
         <f t="shared" si="98"/>
         <v>4</v>
       </c>
-      <c r="N2090" s="69" t="s">
+      <c r="N2090" s="68" t="s">
         <v>935</v>
       </c>
       <c r="U2090" s="7" t="s">
@@ -77590,7 +77601,7 @@
         <f t="shared" si="98"/>
         <v>5</v>
       </c>
-      <c r="N2091" s="69" t="s">
+      <c r="N2091" s="68" t="s">
         <v>1197</v>
       </c>
       <c r="V2091" s="45"/>
@@ -77614,7 +77625,7 @@
         <f t="shared" si="98"/>
         <v>6</v>
       </c>
-      <c r="N2092" s="69" t="s">
+      <c r="N2092" s="68" t="s">
         <v>1198</v>
       </c>
       <c r="O2092" s="7" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502A4EB-94F2-4F5E-8828-0E9AD7EBBCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$XES$2294</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5832,7 +5833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6583,13 +6584,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="W277" sqref="W277"/>
+      <selection pane="bottomLeft" activeCell="N854" sqref="N854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -82997,7 +82998,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XES2294"/>
+  <autoFilter ref="A1:XES2294" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502A4EB-94F2-4F5E-8828-0E9AD7EBBCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$XES$2294</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5486,9 +5485,6 @@
     <t>iqhetIqha</t>
   </si>
   <si>
-    <t>aqgne itya#gne</t>
-  </si>
-  <si>
     <t>dAq iti# dAH</t>
   </si>
   <si>
@@ -5751,9 +5747,6 @@
   </si>
   <si>
     <t>Baqraqddhvaqmiti# Baraddhvam</t>
-  </si>
-  <si>
-    <t>maqKeByaqH iti# maqKeBya#H</t>
   </si>
   <si>
     <t>deqvAq iti# devAH</t>
@@ -5829,11 +5822,17 @@
       <t>qShya$m</t>
     </r>
   </si>
+  <si>
+    <t>aqgna itya#gne</t>
+  </si>
+  <si>
+    <t>maqKeByaq iti# maqKeBya#H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6584,13 +6583,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2236" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N854" sqref="N854"/>
+      <selection pane="bottomLeft" activeCell="V2240" sqref="V2240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8220,7 +8219,7 @@
         <v>91</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="45" t="s">
@@ -17922,7 +17921,7 @@
         <v>73</v>
       </c>
       <c r="N277" s="77" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="O277" s="6"/>
       <c r="P277" s="7"/>
@@ -22695,7 +22694,7 @@
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="61"/>
       <c r="D399" s="74" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E399" s="21"/>
       <c r="F399" s="21"/>
@@ -22740,7 +22739,7 @@
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="61"/>
       <c r="D400" s="74" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E400" s="21"/>
       <c r="F400" s="21"/>
@@ -29354,10 +29353,10 @@
       <c r="Q569" s="7"/>
       <c r="R569" s="7"/>
       <c r="S569" s="7" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="T569" s="7" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="U569" s="7"/>
       <c r="V569" s="45"/>
@@ -29743,10 +29742,10 @@
       <c r="Q579" s="7"/>
       <c r="R579" s="7"/>
       <c r="S579" s="7" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="T579" s="7" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="U579" s="7"/>
       <c r="V579" s="45"/>
@@ -34392,7 +34391,7 @@
       </c>
       <c r="R703" s="7"/>
       <c r="S703" s="7" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="T703" s="7" t="s">
         <v>155</v>
@@ -55072,8 +55071,8 @@
       <c r="U1318" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V1318" s="45" t="s">
-        <v>1816</v>
+      <c r="V1318" s="46" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="1319" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55422,7 +55421,7 @@
       <c r="Q1328" s="7"/>
       <c r="R1328" s="7"/>
       <c r="V1328" s="45" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1329" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56091,7 +56090,7 @@
       <c r="Q1347" s="7"/>
       <c r="R1347" s="7"/>
       <c r="V1347" s="45" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56408,7 +56407,7 @@
       <c r="Q1356" s="7"/>
       <c r="R1356" s="7"/>
       <c r="V1356" s="45" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56710,7 +56709,7 @@
       <c r="Q1365" s="7"/>
       <c r="R1365" s="7"/>
       <c r="V1365" s="45" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1366" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56959,7 +56958,7 @@
         <v>84</v>
       </c>
       <c r="V1372" s="45" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1373" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57270,7 +57269,7 @@
       <c r="Q1381" s="7"/>
       <c r="R1381" s="7"/>
       <c r="V1381" s="45" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1382" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57511,7 +57510,7 @@
       <c r="Q1388" s="7"/>
       <c r="R1388" s="7"/>
       <c r="V1388" s="45" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1389" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57719,7 +57718,7 @@
       <c r="Q1394" s="7"/>
       <c r="R1394" s="7"/>
       <c r="V1394" s="45" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1395" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57992,7 +57991,7 @@
       <c r="Q1402" s="7"/>
       <c r="R1402" s="7"/>
       <c r="V1402" s="45" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58103,7 +58102,7 @@
       <c r="Q1405" s="7"/>
       <c r="R1405" s="7"/>
       <c r="V1405" s="45" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58316,7 +58315,7 @@
       <c r="Q1411" s="7"/>
       <c r="R1411" s="7"/>
       <c r="V1411" s="45" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58487,7 +58486,7 @@
       <c r="Q1416" s="7"/>
       <c r="R1416" s="7"/>
       <c r="V1416" s="45" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58834,7 +58833,7 @@
       <c r="Q1426" s="7"/>
       <c r="R1426" s="7"/>
       <c r="V1426" s="45" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59114,7 +59113,7 @@
       <c r="Q1434" s="7"/>
       <c r="R1434" s="7"/>
       <c r="V1434" s="45" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1435" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59258,7 +59257,7 @@
       <c r="Q1438" s="7"/>
       <c r="R1438" s="7"/>
       <c r="V1438" s="45" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1439" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59493,7 +59492,7 @@
       <c r="Q1445" s="7"/>
       <c r="R1445" s="7"/>
       <c r="S1445" s="7" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="T1445" s="7" t="s">
         <v>194</v>
@@ -59567,7 +59566,7 @@
       <c r="Q1447" s="7"/>
       <c r="R1447" s="7"/>
       <c r="V1447" s="45" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1448" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59707,7 +59706,7 @@
       <c r="Q1451" s="7"/>
       <c r="R1451" s="7"/>
       <c r="V1451" s="45" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1452" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59983,7 +59982,7 @@
         <v>174</v>
       </c>
       <c r="V1459" s="45" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1460" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60092,7 +60091,7 @@
       <c r="Q1462" s="7"/>
       <c r="R1462" s="7"/>
       <c r="V1462" s="45" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1463" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60342,7 +60341,7 @@
       <c r="Q1469" s="7"/>
       <c r="R1469" s="7"/>
       <c r="V1469" s="45" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60830,7 +60829,7 @@
       <c r="Q1483" s="7"/>
       <c r="R1483" s="7"/>
       <c r="V1483" s="45" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1484" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60935,7 +60934,7 @@
       <c r="Q1486" s="7"/>
       <c r="R1486" s="7"/>
       <c r="V1486" s="45" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1487" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61249,7 +61248,7 @@
       <c r="Q1495" s="7"/>
       <c r="R1495" s="7"/>
       <c r="V1495" s="45" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1496" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61319,7 +61318,7 @@
       <c r="Q1497" s="7"/>
       <c r="R1497" s="7"/>
       <c r="V1497" s="45" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1498" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61556,7 +61555,7 @@
       <c r="Q1504" s="7"/>
       <c r="R1504" s="7"/>
       <c r="V1504" s="45" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61774,7 +61773,7 @@
       <c r="Q1510" s="7"/>
       <c r="R1510" s="7"/>
       <c r="V1510" s="45" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1511" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61981,7 +61980,7 @@
       <c r="Q1516" s="7"/>
       <c r="R1516" s="7"/>
       <c r="V1516" s="45" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1517" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62118,7 +62117,7 @@
       <c r="Q1520" s="7"/>
       <c r="R1520" s="7"/>
       <c r="V1520" s="45" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62338,7 +62337,7 @@
       <c r="Q1526" s="7"/>
       <c r="R1526" s="7"/>
       <c r="V1526" s="45" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62507,7 +62506,7 @@
       <c r="Q1531" s="7"/>
       <c r="R1531" s="7"/>
       <c r="V1531" s="45" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62836,7 +62835,7 @@
       <c r="Q1540" s="7"/>
       <c r="R1540" s="7"/>
       <c r="V1540" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1541" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63159,7 +63158,7 @@
       <c r="Q1550" s="7"/>
       <c r="R1550" s="7"/>
       <c r="V1550" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1551" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63475,7 +63474,7 @@
       <c r="Q1559" s="7"/>
       <c r="R1559" s="7"/>
       <c r="V1559" s="45" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1560" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63778,7 +63777,7 @@
       <c r="Q1568" s="7"/>
       <c r="R1568" s="7"/>
       <c r="V1568" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1569" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64086,7 +64085,7 @@
       <c r="Q1577" s="7"/>
       <c r="R1577" s="7"/>
       <c r="V1577" s="45" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1578" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64319,7 +64318,7 @@
         <v>18</v>
       </c>
       <c r="V1586" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1587" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64551,7 +64550,7 @@
         <v>18</v>
       </c>
       <c r="V1595" s="45" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1596" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64783,7 +64782,7 @@
         <v>18</v>
       </c>
       <c r="V1604" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1605" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64984,7 +64983,7 @@
         <v>18</v>
       </c>
       <c r="V1611" s="45" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1612" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65226,7 +65225,7 @@
         <v>18</v>
       </c>
       <c r="V1620" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1621" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65712,7 +65711,7 @@
         <v>18</v>
       </c>
       <c r="V1639" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1640" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65968,7 +65967,7 @@
         <v>18</v>
       </c>
       <c r="V1649" s="45" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1650" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66222,7 +66221,7 @@
         <v>18</v>
       </c>
       <c r="V1659" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1660" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66449,7 +66448,7 @@
         <v>18</v>
       </c>
       <c r="V1668" s="45" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1669" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66703,7 +66702,7 @@
         <v>18</v>
       </c>
       <c r="V1678" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68063,7 +68062,7 @@
         <v>18</v>
       </c>
       <c r="V1732" s="45" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1733" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68290,7 +68289,7 @@
         <v>18</v>
       </c>
       <c r="V1741" s="45" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1742" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68583,7 +68582,7 @@
         <v>174</v>
       </c>
       <c r="V1752" s="45" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1753" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68884,7 +68883,7 @@
         <v>18</v>
       </c>
       <c r="V1764" s="45" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1765" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69021,7 +69020,7 @@
         <v>18</v>
       </c>
       <c r="V1769" s="45" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1770" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69107,7 +69106,7 @@
         <v>129</v>
       </c>
       <c r="V1772" s="45" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1773" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69315,7 +69314,7 @@
         <v>18</v>
       </c>
       <c r="V1779" s="45" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1780" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69428,10 +69427,10 @@
         <v>1055</v>
       </c>
       <c r="S1783" s="7" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="T1783" s="7" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="V1783" s="45"/>
     </row>
@@ -69464,7 +69463,7 @@
         <v>18</v>
       </c>
       <c r="V1784" s="45" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1785" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69640,7 +69639,7 @@
         <v>18</v>
       </c>
       <c r="V1790" s="45" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1791" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69798,7 +69797,7 @@
         <v>18</v>
       </c>
       <c r="V1796" s="45" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1797" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70031,7 +70030,7 @@
         <v>18</v>
       </c>
       <c r="V1805" s="45" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1806" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70345,7 +70344,7 @@
         <v>18</v>
       </c>
       <c r="V1817" s="45" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1818" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70527,7 +70526,7 @@
         <v>18</v>
       </c>
       <c r="V1824" s="45" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70706,7 +70705,7 @@
         <v>18</v>
       </c>
       <c r="V1831" s="45" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1832" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71153,7 +71152,7 @@
         <v>84</v>
       </c>
       <c r="V1848" s="45" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1849" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71399,7 +71398,7 @@
         <v>18</v>
       </c>
       <c r="V1857" s="45" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1858" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71596,7 +71595,7 @@
         <v>18</v>
       </c>
       <c r="V1865" s="45" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1866" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71775,7 +71774,7 @@
         <v>174</v>
       </c>
       <c r="V1871" s="45" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1872" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71975,7 +71974,7 @@
         <v>18</v>
       </c>
       <c r="V1879" s="45" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1880" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72205,7 +72204,7 @@
         <v>18</v>
       </c>
       <c r="V1887" s="45" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1888" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72465,7 +72464,7 @@
         <v>18</v>
       </c>
       <c r="V1897" s="45" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1898" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72861,7 +72860,7 @@
         <v>18</v>
       </c>
       <c r="V1912" s="45" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1913" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73022,7 +73021,7 @@
         <v>18</v>
       </c>
       <c r="V1918" s="45" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1919" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73330,7 +73329,7 @@
         <v>18</v>
       </c>
       <c r="V1929" s="45" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1930" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73472,7 +73471,7 @@
         <v>18</v>
       </c>
       <c r="V1934" s="45" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1935" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73666,7 +73665,7 @@
         <v>18</v>
       </c>
       <c r="V1941" s="45" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1942" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73815,7 +73814,7 @@
         <v>18</v>
       </c>
       <c r="V1947" s="45" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1948" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74002,7 +74001,7 @@
         <v>18</v>
       </c>
       <c r="V1954" s="45" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1955" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74212,7 +74211,7 @@
         <v>18</v>
       </c>
       <c r="V1962" s="45" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74437,7 +74436,7 @@
         <v>18</v>
       </c>
       <c r="V1971" s="45" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1972" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74598,7 +74597,7 @@
         <v>18</v>
       </c>
       <c r="V1977" s="45" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1978" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74783,7 +74782,7 @@
         <v>18</v>
       </c>
       <c r="V1984" s="45" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1985" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75042,7 +75041,7 @@
         <v>18</v>
       </c>
       <c r="V1993" s="45" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1994" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75235,7 +75234,7 @@
         <v>18</v>
       </c>
       <c r="V2000" s="45" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="2001" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75483,7 +75482,7 @@
         <v>18</v>
       </c>
       <c r="V2009" s="45" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="2010" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75722,7 +75721,7 @@
         <v>18</v>
       </c>
       <c r="V2018" s="45" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="2019" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75982,7 +75981,7 @@
         <v>18</v>
       </c>
       <c r="V2028" s="45" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="2029" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76110,7 +76109,7 @@
     </row>
     <row r="2034" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2034" s="56" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="I2034" s="48" t="s">
         <v>64</v>
@@ -76245,7 +76244,7 @@
         <v>18</v>
       </c>
       <c r="V2038" s="45" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="2039" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77323,7 +77322,7 @@
         <v>18</v>
       </c>
       <c r="V2079" s="45" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="2080" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77511,7 +77510,7 @@
         <v>18</v>
       </c>
       <c r="V2086" s="45" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="2087" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77691,7 +77690,7 @@
         <v>18</v>
       </c>
       <c r="V2093" s="45" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="2094" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77792,7 +77791,7 @@
         <v>18</v>
       </c>
       <c r="V2097" s="45" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="2098" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78072,7 +78071,7 @@
         <v>18</v>
       </c>
       <c r="V2108" s="45" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78152,7 +78151,7 @@
         <v>18</v>
       </c>
       <c r="V2111" s="45" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78560,7 +78559,7 @@
         <v>18</v>
       </c>
       <c r="V2127" s="45" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="2128" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78808,7 +78807,7 @@
         <v>18</v>
       </c>
       <c r="V2136" s="45" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="2137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79067,7 +79066,7 @@
         <v>18</v>
       </c>
       <c r="V2146" s="45" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2147" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79171,7 +79170,7 @@
         <v>18</v>
       </c>
       <c r="V2150" s="45" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="2151" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79248,7 +79247,7 @@
         <v>18</v>
       </c>
       <c r="V2153" s="45" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="2154" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79433,7 +79432,7 @@
         <v>18</v>
       </c>
       <c r="V2160" s="45" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79642,7 +79641,7 @@
         <v>18</v>
       </c>
       <c r="V2168" s="45" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79845,7 +79844,7 @@
         <v>84</v>
       </c>
       <c r="V2176" s="45" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2177" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79946,7 +79945,7 @@
         <v>18</v>
       </c>
       <c r="V2180" s="45" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80234,7 +80233,7 @@
         <v>18</v>
       </c>
       <c r="V2191" s="45" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80524,7 +80523,7 @@
         <v>18</v>
       </c>
       <c r="V2202" s="45" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2203" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80829,7 +80828,7 @@
         <v>18</v>
       </c>
       <c r="V2212" s="45" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81173,7 +81172,7 @@
         <v>18</v>
       </c>
       <c r="V2224" s="45" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81382,7 +81381,7 @@
         <v>18</v>
       </c>
       <c r="V2232" s="45" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="2233" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81580,8 +81579,8 @@
       <c r="P2240" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="V2240" s="45" t="s">
-        <v>1905</v>
+      <c r="V2240" s="46" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="2241" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81694,7 +81693,7 @@
         <v>18</v>
       </c>
       <c r="V2244" s="45" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2245" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81875,7 +81874,7 @@
         <v>18</v>
       </c>
       <c r="V2251" s="45" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="2252" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81952,7 +81951,7 @@
         <v>18</v>
       </c>
       <c r="V2254" s="45" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="2255" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82163,7 +82162,7 @@
         <v>18</v>
       </c>
       <c r="V2262" s="45" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="2263" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82393,7 +82392,7 @@
         <v>18</v>
       </c>
       <c r="V2271" s="45" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="2272" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82527,7 +82526,7 @@
         <v>174</v>
       </c>
       <c r="V2276" s="45" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="2277" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82786,7 +82785,7 @@
         <v>18</v>
       </c>
       <c r="V2286" s="46" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="2287" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82890,7 +82889,7 @@
         <v>18</v>
       </c>
       <c r="V2290" s="45" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="2291" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82998,7 +82997,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XES2294" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:XES2294"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA17B4-55FB-41AC-AB4B-59ED2790C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$XES$2294</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1923">
   <si>
     <t>PS</t>
   </si>
@@ -3776,9 +3777,6 @@
   </si>
   <si>
     <t>rAqtiH</t>
-  </si>
-  <si>
-    <t>te</t>
   </si>
   <si>
     <t>aqvaqrddhaqntaq</t>
@@ -5832,7 +5830,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6077,7 +6075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6303,6 +6301,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6583,13 +6584,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2236" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2198" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V2240" sqref="V2240"/>
+      <selection pane="bottomLeft" activeCell="N2203" sqref="N2203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7367,7 +7368,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="45" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7490,7 +7491,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="45" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7649,7 +7650,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="14" t="s">
@@ -7661,7 +7662,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="45" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -7942,7 +7943,7 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="45" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8219,11 +8220,11 @@
         <v>91</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="45" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8453,7 +8454,7 @@
         <v>33</v>
       </c>
       <c r="N34" s="45" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="14" t="s">
@@ -8465,7 +8466,7 @@
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="45" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8508,7 +8509,7 @@
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="45" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8539,7 +8540,7 @@
         <v>35</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="14" t="s">
@@ -8551,7 +8552,7 @@
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="45" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -8890,7 +8891,7 @@
         <v>44</v>
       </c>
       <c r="N45" s="45" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="14" t="s">
@@ -8902,7 +8903,7 @@
       <c r="T45" s="14"/>
       <c r="U45" s="14"/>
       <c r="V45" s="45" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="46" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9066,7 +9067,7 @@
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="45" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9297,7 +9298,7 @@
         <v>54</v>
       </c>
       <c r="N55" s="45" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>0</v>
@@ -9311,7 +9312,7 @@
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
       <c r="V55" s="45" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="56" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9510,7 +9511,7 @@
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
       <c r="V60" s="45" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -9732,7 +9733,7 @@
         <v>65</v>
       </c>
       <c r="N66" s="45" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="14" t="s">
@@ -9744,7 +9745,7 @@
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="45" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="67" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10083,7 +10084,7 @@
         <v>74</v>
       </c>
       <c r="N75" s="45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O75" s="7"/>
       <c r="P75" s="14" t="s">
@@ -10095,7 +10096,7 @@
       <c r="T75" s="14"/>
       <c r="U75" s="14"/>
       <c r="V75" s="45" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10181,7 +10182,7 @@
       <c r="T77" s="14"/>
       <c r="U77" s="14"/>
       <c r="V77" s="45" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10493,7 +10494,7 @@
         <v>84</v>
       </c>
       <c r="N85" s="45" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="14" t="s">
@@ -10507,7 +10508,7 @@
         <v>84</v>
       </c>
       <c r="V85" s="45" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10622,7 +10623,7 @@
       <c r="T88" s="14"/>
       <c r="U88" s="14"/>
       <c r="V88" s="45" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -10840,7 +10841,7 @@
         <v>93</v>
       </c>
       <c r="N94" s="45" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>0</v>
@@ -10854,7 +10855,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="15"/>
       <c r="V94" s="45" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="95" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11161,7 +11162,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
       <c r="V102" s="45" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="103" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11264,7 +11265,7 @@
         <v>104</v>
       </c>
       <c r="N105" s="45" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="14" t="s">
@@ -11276,7 +11277,7 @@
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="45" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="106" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11317,7 +11318,7 @@
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
       <c r="V106" s="45" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="107" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11662,7 +11663,7 @@
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
       <c r="V115" s="45" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -11968,7 +11969,7 @@
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
       <c r="V123" s="45" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="124" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12009,7 +12010,7 @@
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
       <c r="V124" s="45" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12050,7 +12051,7 @@
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
       <c r="V125" s="45" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="126" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12091,7 +12092,7 @@
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
       <c r="V126" s="45" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="127" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12120,7 +12121,7 @@
         <v>126</v>
       </c>
       <c r="N127" s="45" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>0</v>
@@ -12134,7 +12135,7 @@
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
       <c r="V127" s="45" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="128" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12350,7 +12351,7 @@
         <v>132</v>
       </c>
       <c r="N133" s="45" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O133" s="7" t="s">
         <v>0</v>
@@ -12364,7 +12365,7 @@
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="45" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="134" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12430,7 +12431,7 @@
         <v>134</v>
       </c>
       <c r="N135" s="45" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O135" s="7" t="s">
         <v>0</v>
@@ -12444,7 +12445,7 @@
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="45" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="136" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12596,7 +12597,7 @@
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
       <c r="V139" s="45" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="140" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -12674,7 +12675,7 @@
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
       <c r="V141" s="45" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="142" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13171,7 +13172,7 @@
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
       <c r="V154" s="45" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="155" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -13857,7 +13858,7 @@
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="173" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14350,7 +14351,7 @@
       <c r="T185" s="7"/>
       <c r="U185" s="7"/>
       <c r="V185" s="45" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="186" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14490,7 +14491,7 @@
         <v>188</v>
       </c>
       <c r="N189" s="45" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O189" s="6"/>
       <c r="P189" s="14" t="s">
@@ -14502,7 +14503,7 @@
       <c r="T189" s="7"/>
       <c r="U189" s="7"/>
       <c r="V189" s="45" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="190" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -14878,7 +14879,7 @@
       <c r="T199" s="7"/>
       <c r="U199" s="7"/>
       <c r="V199" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15078,7 +15079,7 @@
       <c r="T204" s="7"/>
       <c r="U204" s="7"/>
       <c r="V204" s="45" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="205" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15365,7 +15366,7 @@
         <v>8</v>
       </c>
       <c r="N212" s="45" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="O212" s="6"/>
       <c r="P212" s="14" t="s">
@@ -15377,7 +15378,7 @@
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
       <c r="V212" s="45" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15704,7 +15705,7 @@
         <v>17</v>
       </c>
       <c r="N221" s="45" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="O221" s="7" t="s">
         <v>0</v>
@@ -15718,7 +15719,7 @@
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
       <c r="V221" s="45" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="222" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15761,7 +15762,7 @@
       <c r="T222" s="7"/>
       <c r="U222" s="7"/>
       <c r="V222" s="45" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="223" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15987,7 +15988,7 @@
         <v>24</v>
       </c>
       <c r="N228" s="45" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="O228" s="7" t="s">
         <v>0</v>
@@ -16001,7 +16002,7 @@
       <c r="T228" s="7"/>
       <c r="U228" s="7"/>
       <c r="V228" s="45" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="229" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16330,7 +16331,7 @@
         <v>33</v>
       </c>
       <c r="N237" s="45" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="O237" s="6"/>
       <c r="P237" s="14" t="s">
@@ -16342,7 +16343,7 @@
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
       <c r="V237" s="45" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="238" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16558,7 +16559,7 @@
         <v>39</v>
       </c>
       <c r="N243" s="45" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="O243" s="7" t="s">
         <v>70</v>
@@ -16572,7 +16573,7 @@
       <c r="T243" s="7"/>
       <c r="U243" s="7"/>
       <c r="V243" s="45" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="244" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16675,7 +16676,7 @@
         <v>42</v>
       </c>
       <c r="N246" s="45" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="O246" s="7" t="s">
         <v>0</v>
@@ -16689,7 +16690,7 @@
       <c r="T246" s="7"/>
       <c r="U246" s="7"/>
       <c r="V246" s="45" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="247" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16730,7 +16731,7 @@
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
       <c r="V247" s="45" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="248" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16771,7 +16772,7 @@
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
       <c r="V248" s="45" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="249" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16812,7 +16813,7 @@
       <c r="T249" s="7"/>
       <c r="U249" s="7"/>
       <c r="V249" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="250" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16841,7 +16842,7 @@
         <v>46</v>
       </c>
       <c r="N250" s="45" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="O250" s="6"/>
       <c r="P250" s="14" t="s">
@@ -16853,7 +16854,7 @@
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
       <c r="V250" s="45" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="251" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16968,7 +16969,7 @@
       <c r="T253" s="7"/>
       <c r="U253" s="7"/>
       <c r="V253" s="45" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="254" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17011,7 +17012,7 @@
       <c r="T254" s="7"/>
       <c r="U254" s="7"/>
       <c r="V254" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17133,7 +17134,7 @@
       <c r="T257" s="7"/>
       <c r="U257" s="7"/>
       <c r="V257" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="258" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17250,7 +17251,7 @@
       <c r="T260" s="7"/>
       <c r="U260" s="7"/>
       <c r="V260" s="45" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="261" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17291,7 +17292,7 @@
       <c r="T261" s="7"/>
       <c r="U261" s="7"/>
       <c r="V261" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="262" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17371,7 +17372,7 @@
       <c r="T263" s="7"/>
       <c r="U263" s="7"/>
       <c r="V263" s="45" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="264" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17580,7 +17581,7 @@
       <c r="T268" s="7"/>
       <c r="U268" s="7"/>
       <c r="V268" s="45" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="269" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17646,7 +17647,7 @@
         <v>66</v>
       </c>
       <c r="N270" s="45" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="O270" s="6"/>
       <c r="P270" s="14" t="s">
@@ -17658,7 +17659,7 @@
       <c r="T270" s="7"/>
       <c r="U270" s="7"/>
       <c r="V270" s="45" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="271" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17736,7 +17737,7 @@
       <c r="T272" s="7"/>
       <c r="U272" s="7"/>
       <c r="V272" s="45" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="273" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17777,7 +17778,7 @@
       <c r="T273" s="7"/>
       <c r="U273" s="7"/>
       <c r="V273" s="45" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="274" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17855,7 +17856,7 @@
       <c r="T275" s="7"/>
       <c r="U275" s="7"/>
       <c r="V275" s="45" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="276" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17921,7 +17922,7 @@
         <v>73</v>
       </c>
       <c r="N277" s="77" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="O277" s="6"/>
       <c r="P277" s="7"/>
@@ -18579,7 +18580,7 @@
         <v>89</v>
       </c>
       <c r="N293" s="45" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="O293" s="6"/>
       <c r="P293" s="14" t="s">
@@ -18591,7 +18592,7 @@
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
       <c r="V293" s="45" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="294" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18940,7 +18941,7 @@
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
       <c r="V302" s="45" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="303" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19058,7 +19059,7 @@
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
       <c r="V305" s="45" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="306" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19223,7 +19224,7 @@
       <c r="T309" s="7"/>
       <c r="U309" s="7"/>
       <c r="V309" s="45" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="310" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19291,7 +19292,7 @@
         <v>107</v>
       </c>
       <c r="N311" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="O311" s="7"/>
       <c r="P311" s="14" t="s">
@@ -19303,7 +19304,7 @@
       <c r="T311" s="7"/>
       <c r="U311" s="7"/>
       <c r="V311" s="45" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="312" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19344,7 +19345,7 @@
       <c r="T312" s="7"/>
       <c r="U312" s="7"/>
       <c r="V312" s="45" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="313" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19562,7 +19563,7 @@
         <v>114</v>
       </c>
       <c r="N318" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="O318" s="6"/>
       <c r="P318" s="14" t="s">
@@ -19574,7 +19575,7 @@
       <c r="T318" s="7"/>
       <c r="U318" s="7"/>
       <c r="V318" s="45" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="319" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19656,7 +19657,7 @@
       <c r="T320" s="7"/>
       <c r="U320" s="7"/>
       <c r="V320" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="321" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19800,7 +19801,7 @@
         <v>120</v>
       </c>
       <c r="N324" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="O324" s="6"/>
       <c r="P324" s="14" t="s">
@@ -19812,7 +19813,7 @@
       <c r="T324" s="7"/>
       <c r="U324" s="7"/>
       <c r="V324" s="45" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="325" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19853,7 +19854,7 @@
       <c r="T325" s="7"/>
       <c r="U325" s="7"/>
       <c r="V325" s="45" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="326" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20079,7 +20080,7 @@
       <c r="T331" s="7"/>
       <c r="U331" s="7"/>
       <c r="V331" s="45" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="332" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20379,7 +20380,7 @@
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
       <c r="V339" s="45" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="340" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20568,7 +20569,7 @@
       <c r="T344" s="7"/>
       <c r="U344" s="7"/>
       <c r="V344" s="45" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="345" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20749,7 +20750,7 @@
         <v>145</v>
       </c>
       <c r="N349" s="45" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="O349" s="6"/>
       <c r="P349" s="14" t="s">
@@ -20761,7 +20762,7 @@
       <c r="T349" s="7"/>
       <c r="U349" s="7"/>
       <c r="V349" s="45" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="350" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20802,7 +20803,7 @@
       <c r="T350" s="7"/>
       <c r="U350" s="7"/>
       <c r="V350" s="45" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="351" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20980,7 +20981,7 @@
         <v>151</v>
       </c>
       <c r="N355" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="O355" s="6"/>
       <c r="P355" s="14" t="s">
@@ -20992,7 +20993,7 @@
       <c r="T355" s="7"/>
       <c r="U355" s="7"/>
       <c r="V355" s="45" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="356" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21220,7 +21221,7 @@
       <c r="T361" s="7"/>
       <c r="U361" s="7"/>
       <c r="V361" s="45" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="362" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21261,7 +21262,7 @@
       <c r="T362" s="7"/>
       <c r="U362" s="7"/>
       <c r="V362" s="45" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="363" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21302,7 +21303,7 @@
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
       <c r="V363" s="45" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21417,7 +21418,7 @@
       <c r="T366" s="7"/>
       <c r="U366" s="7"/>
       <c r="V366" s="45" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="367" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21571,7 +21572,7 @@
       <c r="T370" s="7"/>
       <c r="U370" s="7"/>
       <c r="V370" s="45" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="371" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21600,7 +21601,7 @@
         <v>167</v>
       </c>
       <c r="N371" s="45" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="O371" s="6"/>
       <c r="P371" s="14" t="s">
@@ -21614,7 +21615,7 @@
         <v>174</v>
       </c>
       <c r="V371" s="45" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="372" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21737,7 +21738,7 @@
       <c r="T374" s="7"/>
       <c r="U374" s="7"/>
       <c r="V374" s="45" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="375" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21973,7 +21974,7 @@
       <c r="T380" s="7"/>
       <c r="U380" s="7"/>
       <c r="V380" s="45" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="381" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22014,7 +22015,7 @@
       <c r="T381" s="7"/>
       <c r="U381" s="7"/>
       <c r="V381" s="45" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="382" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22129,7 +22130,7 @@
       <c r="T384" s="7"/>
       <c r="U384" s="7"/>
       <c r="V384" s="45" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="385" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22360,7 +22361,7 @@
         <v>186</v>
       </c>
       <c r="N390" s="45" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="O390" s="7" t="s">
         <v>0</v>
@@ -22374,7 +22375,7 @@
       <c r="T390" s="7"/>
       <c r="U390" s="7"/>
       <c r="V390" s="45" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="391" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22567,7 +22568,7 @@
       <c r="T395" s="7"/>
       <c r="U395" s="7"/>
       <c r="V395" s="45" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="396" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22635,7 +22636,7 @@
         <v>193</v>
       </c>
       <c r="N397" s="45" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O397" s="7" t="s">
         <v>0</v>
@@ -22649,7 +22650,7 @@
       <c r="T397" s="7"/>
       <c r="U397" s="7"/>
       <c r="V397" s="45" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="398" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22694,7 +22695,7 @@
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="61"/>
       <c r="D399" s="74" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E399" s="21"/>
       <c r="F399" s="21"/>
@@ -22739,7 +22740,7 @@
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="61"/>
       <c r="D400" s="74" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E400" s="21"/>
       <c r="F400" s="21"/>
@@ -22881,7 +22882,7 @@
         <v>199</v>
       </c>
       <c r="N403" s="45" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="O403" s="7" t="s">
         <v>0</v>
@@ -22895,7 +22896,7 @@
       <c r="T403" s="7"/>
       <c r="U403" s="7"/>
       <c r="V403" s="45" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="404" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23083,7 +23084,7 @@
       <c r="T408" s="7"/>
       <c r="U408" s="7"/>
       <c r="V408" s="45" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="409" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23161,7 +23162,7 @@
       <c r="T410" s="7"/>
       <c r="U410" s="7"/>
       <c r="V410" s="45" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="411" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23449,7 +23450,7 @@
         <v>214</v>
       </c>
       <c r="N418" s="45" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="O418" s="6"/>
       <c r="P418" s="14" t="s">
@@ -23461,7 +23462,7 @@
       <c r="T418" s="7"/>
       <c r="U418" s="7"/>
       <c r="V418" s="45" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="419" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23800,7 +23801,7 @@
       <c r="T427" s="7"/>
       <c r="U427" s="7"/>
       <c r="V427" s="45" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="428" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23841,7 +23842,7 @@
       <c r="T428" s="7"/>
       <c r="U428" s="7"/>
       <c r="V428" s="45" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="429" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23882,7 +23883,7 @@
       <c r="T429" s="7"/>
       <c r="U429" s="7"/>
       <c r="V429" s="45" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="430" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24001,7 +24002,7 @@
         <v>84</v>
       </c>
       <c r="V432" s="45" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="433" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24067,7 +24068,7 @@
         <v>230</v>
       </c>
       <c r="N434" s="45" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="O434" s="6"/>
       <c r="P434" s="14" t="s">
@@ -24079,7 +24080,7 @@
       <c r="T434" s="7"/>
       <c r="U434" s="7"/>
       <c r="V434" s="45" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="435" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24159,7 +24160,7 @@
       <c r="T436" s="7"/>
       <c r="U436" s="7"/>
       <c r="V436" s="45" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="437" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24311,7 +24312,7 @@
       <c r="T440" s="7"/>
       <c r="U440" s="7"/>
       <c r="V440" s="45" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="441" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24414,7 +24415,7 @@
         <v>239</v>
       </c>
       <c r="N443" s="45" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="O443" s="6"/>
       <c r="P443" s="14" t="s">
@@ -24426,7 +24427,7 @@
       <c r="T443" s="7"/>
       <c r="U443" s="7"/>
       <c r="V443" s="45" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="444" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24744,7 +24745,7 @@
         <v>247</v>
       </c>
       <c r="N451" s="45" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="O451" s="6"/>
       <c r="P451" s="14" t="s">
@@ -24756,7 +24757,7 @@
       <c r="T451" s="7"/>
       <c r="U451" s="7"/>
       <c r="V451" s="45" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="452" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24799,7 +24800,7 @@
       <c r="T452" s="7"/>
       <c r="U452" s="7"/>
       <c r="V452" s="45" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="453" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24842,7 +24843,7 @@
       <c r="T453" s="7"/>
       <c r="U453" s="7"/>
       <c r="V453" s="45" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="454" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24912,7 +24913,7 @@
         <v>251</v>
       </c>
       <c r="N455" s="45" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="O455" s="7" t="s">
         <v>0</v>
@@ -24926,7 +24927,7 @@
       <c r="T455" s="7"/>
       <c r="U455" s="7"/>
       <c r="V455" s="45" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="456" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25043,7 +25044,7 @@
       <c r="T458" s="7"/>
       <c r="U458" s="7"/>
       <c r="V458" s="45" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="459" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25198,7 +25199,7 @@
         <v>84</v>
       </c>
       <c r="V462" s="45" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25315,7 +25316,7 @@
       <c r="T465" s="7"/>
       <c r="U465" s="7"/>
       <c r="V465" s="45" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="466" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25467,7 +25468,7 @@
       <c r="T469" s="7"/>
       <c r="U469" s="7"/>
       <c r="V469" s="45" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="470" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25582,7 +25583,7 @@
       <c r="T472" s="7"/>
       <c r="U472" s="7"/>
       <c r="V472" s="45" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="473" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25648,7 +25649,7 @@
         <v>270</v>
       </c>
       <c r="N474" s="57" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="O474" s="6"/>
       <c r="P474" s="14" t="s">
@@ -25660,7 +25661,7 @@
       <c r="T474" s="7"/>
       <c r="U474" s="7"/>
       <c r="V474" s="45" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="475" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25810,7 +25811,7 @@
       <c r="T478" s="7"/>
       <c r="U478" s="7"/>
       <c r="V478" s="45" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="479" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25888,7 +25889,7 @@
       <c r="T480" s="7"/>
       <c r="U480" s="7"/>
       <c r="V480" s="45" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="481" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26040,7 +26041,7 @@
       <c r="T484" s="7"/>
       <c r="U484" s="7"/>
       <c r="V484" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="485" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26180,7 +26181,7 @@
         <v>14</v>
       </c>
       <c r="N488" s="45" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="O488" s="7"/>
       <c r="P488" s="14" t="s">
@@ -26192,7 +26193,7 @@
       <c r="T488" s="7"/>
       <c r="U488" s="7"/>
       <c r="V488" s="45" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="489" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26346,7 +26347,7 @@
       <c r="T492" s="7"/>
       <c r="U492" s="7"/>
       <c r="V492" s="45" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="493" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26449,7 +26450,7 @@
         <v>21</v>
       </c>
       <c r="N495" s="45" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="O495" s="6"/>
       <c r="P495" s="14" t="s">
@@ -26461,7 +26462,7 @@
       <c r="T495" s="7"/>
       <c r="U495" s="7"/>
       <c r="V495" s="45" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="496" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26527,7 +26528,7 @@
         <v>23</v>
       </c>
       <c r="N497" s="45" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O497" s="7" t="s">
         <v>0</v>
@@ -26539,7 +26540,7 @@
       <c r="T497" s="7"/>
       <c r="U497" s="7"/>
       <c r="V497" s="45" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="498" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26654,7 +26655,7 @@
       <c r="T500" s="7"/>
       <c r="U500" s="7"/>
       <c r="V500" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="501" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26794,7 +26795,7 @@
         <v>30</v>
       </c>
       <c r="N504" s="45" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="O504" s="6"/>
       <c r="P504" s="14" t="s">
@@ -26806,7 +26807,7 @@
       <c r="T504" s="7"/>
       <c r="U504" s="7"/>
       <c r="V504" s="45" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="505" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26960,7 +26961,7 @@
       <c r="T508" s="7"/>
       <c r="U508" s="7"/>
       <c r="V508" s="45" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="509" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27110,7 +27111,7 @@
         <v>38</v>
       </c>
       <c r="N512" s="45" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="O512" s="7" t="s">
         <v>0</v>
@@ -27124,7 +27125,7 @@
       <c r="T512" s="7"/>
       <c r="U512" s="7"/>
       <c r="V512" s="45" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="513" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27451,7 +27452,7 @@
         <v>47</v>
       </c>
       <c r="N521" s="45" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="O521" s="6"/>
       <c r="P521" s="14" t="s">
@@ -27463,7 +27464,7 @@
       <c r="T521" s="7"/>
       <c r="U521" s="7"/>
       <c r="V521" s="45" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="522" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27739,7 +27740,7 @@
         <v>129</v>
       </c>
       <c r="V528" s="45" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="529" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27780,7 +27781,7 @@
       <c r="T529" s="7"/>
       <c r="U529" s="7"/>
       <c r="V529" s="45" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="530" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27809,7 +27810,7 @@
         <v>56</v>
       </c>
       <c r="N530" s="45" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="O530" s="6" t="s">
         <v>17</v>
@@ -27823,7 +27824,7 @@
       <c r="T530" s="7"/>
       <c r="U530" s="7"/>
       <c r="V530" s="45" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="531" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27864,7 +27865,7 @@
       <c r="T531" s="7"/>
       <c r="U531" s="7"/>
       <c r="V531" s="45" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="532" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28055,7 +28056,7 @@
       <c r="T536" s="7"/>
       <c r="U536" s="7"/>
       <c r="V536" s="45" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="537" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28172,7 +28173,7 @@
       <c r="T539" s="7"/>
       <c r="U539" s="7"/>
       <c r="V539" s="45" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="540" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28213,7 +28214,7 @@
       <c r="T540" s="7"/>
       <c r="U540" s="7"/>
       <c r="V540" s="45" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="541" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28291,7 +28292,7 @@
       <c r="T542" s="7"/>
       <c r="U542" s="7"/>
       <c r="V542" s="45" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="543" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28418,7 +28419,7 @@
       <c r="T545" s="7"/>
       <c r="U545" s="7"/>
       <c r="V545" s="45" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="546" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28533,7 +28534,7 @@
       <c r="T548" s="7"/>
       <c r="U548" s="7"/>
       <c r="V548" s="45" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="549" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28636,7 +28637,7 @@
         <v>77</v>
       </c>
       <c r="N551" s="45" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="O551" s="7" t="s">
         <v>0</v>
@@ -28650,7 +28651,7 @@
       <c r="T551" s="7"/>
       <c r="U551" s="7"/>
       <c r="V551" s="45" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="552" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28892,7 +28893,7 @@
         <v>84</v>
       </c>
       <c r="V557" s="45" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="558" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29153,7 +29154,7 @@
         <v>90</v>
       </c>
       <c r="N564" s="45" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="O564" s="6"/>
       <c r="P564" s="14" t="s">
@@ -29165,7 +29166,7 @@
       <c r="T564" s="7"/>
       <c r="U564" s="7"/>
       <c r="V564" s="45" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="565" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29268,7 +29269,7 @@
         <v>93</v>
       </c>
       <c r="N567" s="45" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="O567" s="6"/>
       <c r="P567" s="14" t="s">
@@ -29280,7 +29281,7 @@
       <c r="T567" s="7"/>
       <c r="U567" s="7"/>
       <c r="V567" s="45" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="568" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29353,10 +29354,10 @@
       <c r="Q569" s="7"/>
       <c r="R569" s="7"/>
       <c r="S569" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="T569" s="7" t="s">
         <v>1919</v>
-      </c>
-      <c r="T569" s="7" t="s">
-        <v>1920</v>
       </c>
       <c r="U569" s="7"/>
       <c r="V569" s="45"/>
@@ -29571,7 +29572,7 @@
         <v>101</v>
       </c>
       <c r="N575" s="45" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="O575" s="6"/>
       <c r="P575" s="14" t="s">
@@ -29585,7 +29586,7 @@
         <v>129</v>
       </c>
       <c r="V575" s="45" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="576" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29626,7 +29627,7 @@
       <c r="T576" s="7"/>
       <c r="U576" s="7"/>
       <c r="V576" s="45" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="577" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29655,7 +29656,7 @@
         <v>103</v>
       </c>
       <c r="N577" s="45" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="O577" s="7" t="s">
         <v>0</v>
@@ -29669,7 +29670,7 @@
       <c r="T577" s="7"/>
       <c r="U577" s="7"/>
       <c r="V577" s="45" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="578" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29742,10 +29743,10 @@
       <c r="Q579" s="7"/>
       <c r="R579" s="7"/>
       <c r="S579" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="T579" s="7" t="s">
         <v>1919</v>
-      </c>
-      <c r="T579" s="7" t="s">
-        <v>1920</v>
       </c>
       <c r="U579" s="7"/>
       <c r="V579" s="45"/>
@@ -29963,7 +29964,7 @@
         <v>111</v>
       </c>
       <c r="N585" s="45" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O585" s="7" t="s">
         <v>0</v>
@@ -29977,7 +29978,7 @@
       <c r="T585" s="7"/>
       <c r="U585" s="7"/>
       <c r="V585" s="45" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="586" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30018,7 +30019,7 @@
       <c r="T586" s="7"/>
       <c r="U586" s="7"/>
       <c r="V586" s="45" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="587" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30047,7 +30048,7 @@
         <v>113</v>
       </c>
       <c r="N587" s="45" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="O587" s="7" t="s">
         <v>0</v>
@@ -30061,7 +30062,7 @@
       <c r="T587" s="7"/>
       <c r="U587" s="7"/>
       <c r="V587" s="45" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30404,7 +30405,7 @@
       <c r="T596" s="7"/>
       <c r="U596" s="7"/>
       <c r="V596" s="45" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="597" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30445,7 +30446,7 @@
       <c r="T597" s="7"/>
       <c r="U597" s="7"/>
       <c r="V597" s="45" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="598" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30486,7 +30487,7 @@
       <c r="T598" s="7"/>
       <c r="U598" s="7"/>
       <c r="V598" s="45" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="599" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30774,7 +30775,7 @@
         <v>132</v>
       </c>
       <c r="N606" s="45" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="O606" s="7"/>
       <c r="P606" s="14" t="s">
@@ -30786,7 +30787,7 @@
       <c r="T606" s="7"/>
       <c r="U606" s="7"/>
       <c r="V606" s="45" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="607" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30903,7 +30904,7 @@
       <c r="T609" s="7"/>
       <c r="U609" s="7"/>
       <c r="V609" s="45" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="610" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31082,7 +31083,7 @@
         <v>140</v>
       </c>
       <c r="N614" s="45" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="O614" s="7" t="s">
         <v>0</v>
@@ -31096,7 +31097,7 @@
       <c r="T614" s="7"/>
       <c r="U614" s="7"/>
       <c r="V614" s="45" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="615" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31137,7 +31138,7 @@
       <c r="T615" s="7"/>
       <c r="U615" s="7"/>
       <c r="V615" s="45" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="616" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31215,7 +31216,7 @@
       <c r="T617" s="7"/>
       <c r="U617" s="7"/>
       <c r="V617" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="618" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31256,7 +31257,7 @@
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
       <c r="V618" s="45" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="619" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31299,7 +31300,7 @@
         <v>174</v>
       </c>
       <c r="V619" s="45" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="620" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31518,7 +31519,7 @@
         <v>151</v>
       </c>
       <c r="N625" s="45" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O625" s="7" t="s">
         <v>0</v>
@@ -31532,7 +31533,7 @@
       <c r="T625" s="7"/>
       <c r="U625" s="7"/>
       <c r="V625" s="45" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="626" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31802,7 +31803,7 @@
       <c r="T632" s="17"/>
       <c r="U632" s="17"/>
       <c r="V632" s="45" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -31831,7 +31832,7 @@
         <v>159</v>
       </c>
       <c r="N633" s="45" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O633" s="6"/>
       <c r="P633" s="14" t="s">
@@ -31843,7 +31844,7 @@
       <c r="T633" s="7"/>
       <c r="U633" s="7"/>
       <c r="V633" s="45" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="634" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -32176,7 +32177,7 @@
         <v>168</v>
       </c>
       <c r="N642" s="45" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O642" s="6"/>
       <c r="P642" s="14" t="s">
@@ -32188,7 +32189,7 @@
       <c r="T642" s="7"/>
       <c r="U642" s="7"/>
       <c r="V642" s="45" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="643" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -32229,7 +32230,7 @@
       <c r="T643" s="7"/>
       <c r="U643" s="7"/>
       <c r="V643" s="45" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="644" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -32521,7 +32522,7 @@
         <v>177</v>
       </c>
       <c r="N651" s="45" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="O651" s="7"/>
       <c r="P651" s="14" t="s">
@@ -32533,7 +32534,7 @@
       <c r="T651" s="7"/>
       <c r="U651" s="7"/>
       <c r="V651" s="45" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="652" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -32759,7 +32760,7 @@
       <c r="T657" s="7"/>
       <c r="U657" s="7"/>
       <c r="V657" s="45" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="658" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -32862,7 +32863,7 @@
         <v>9</v>
       </c>
       <c r="N660" s="45" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="O660" s="7" t="s">
         <v>0</v>
@@ -32876,7 +32877,7 @@
       <c r="T660" s="7"/>
       <c r="U660" s="7"/>
       <c r="V660" s="45" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="661" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -33028,7 +33029,7 @@
       <c r="T664" s="7"/>
       <c r="U664" s="7"/>
       <c r="V664" s="45" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="665" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -33239,7 +33240,7 @@
       <c r="Q670" s="7"/>
       <c r="R670" s="7"/>
       <c r="V670" s="45" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="671" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33275,7 +33276,7 @@
       <c r="Q671" s="7"/>
       <c r="R671" s="7"/>
       <c r="V671" s="45" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="672" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33518,7 +33519,7 @@
         <v>106</v>
       </c>
       <c r="V678" s="45" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="679" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33621,7 +33622,7 @@
       <c r="Q681" s="7"/>
       <c r="R681" s="7"/>
       <c r="V681" s="45" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="682" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33714,7 +33715,7 @@
         <v>33</v>
       </c>
       <c r="N684" s="45" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O684" s="7" t="s">
         <v>70</v>
@@ -33725,7 +33726,7 @@
       <c r="Q684" s="7"/>
       <c r="R684" s="7"/>
       <c r="V684" s="45" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="685" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -33867,7 +33868,7 @@
       <c r="Q688" s="7"/>
       <c r="R688" s="7"/>
       <c r="V688" s="45" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="689" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34001,7 +34002,7 @@
         <v>41</v>
       </c>
       <c r="N692" s="45" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="O692" s="7"/>
       <c r="P692" s="14" t="s">
@@ -34010,7 +34011,7 @@
       <c r="Q692" s="7"/>
       <c r="R692" s="7"/>
       <c r="V692" s="45" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="693" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34174,7 +34175,7 @@
       <c r="Q697" s="7"/>
       <c r="R697" s="7"/>
       <c r="V697" s="45" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="698" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34299,7 +34300,7 @@
         <v>50</v>
       </c>
       <c r="N701" s="45" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="O701" s="7" t="s">
         <v>0</v>
@@ -34310,7 +34311,7 @@
       <c r="Q701" s="7"/>
       <c r="R701" s="7"/>
       <c r="V701" s="45" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="702" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34391,7 +34392,7 @@
       </c>
       <c r="R703" s="7"/>
       <c r="S703" s="7" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="T703" s="7" t="s">
         <v>155</v>
@@ -34654,7 +34655,7 @@
       <c r="Q710" s="7"/>
       <c r="R710" s="7"/>
       <c r="V710" s="45" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="711" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34818,7 +34819,7 @@
       <c r="Q715" s="7"/>
       <c r="R715" s="7"/>
       <c r="V715" s="45" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="716" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34854,7 +34855,7 @@
       <c r="Q716" s="7"/>
       <c r="R716" s="7"/>
       <c r="V716" s="45" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="717" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34881,7 +34882,7 @@
         <v>66</v>
       </c>
       <c r="N717" s="45" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="O717" s="7" t="s">
         <v>0</v>
@@ -34892,7 +34893,7 @@
       <c r="Q717" s="7"/>
       <c r="R717" s="7"/>
       <c r="V717" s="45" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="718" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35162,7 +35163,7 @@
       <c r="Q725" s="7"/>
       <c r="R725" s="7"/>
       <c r="V725" s="45" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="726" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35189,7 +35190,7 @@
         <v>75</v>
       </c>
       <c r="N726" s="45" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O726" s="6"/>
       <c r="P726" s="14" t="s">
@@ -35198,7 +35199,7 @@
       <c r="Q726" s="7"/>
       <c r="R726" s="7"/>
       <c r="V726" s="45" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="727" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35433,7 +35434,7 @@
       <c r="Q733" s="7"/>
       <c r="R733" s="7"/>
       <c r="V733" s="45" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="734" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35529,7 +35530,7 @@
         <v>85</v>
       </c>
       <c r="N736" s="45" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O736" s="6"/>
       <c r="P736" s="14" t="s">
@@ -35538,7 +35539,7 @@
       <c r="Q736" s="7"/>
       <c r="R736" s="7"/>
       <c r="V736" s="45" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="737" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35638,7 +35639,7 @@
       <c r="Q739" s="7"/>
       <c r="R739" s="7"/>
       <c r="V739" s="45" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="740" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35761,7 +35762,7 @@
         <v>92</v>
       </c>
       <c r="N743" s="45" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="O743" s="6"/>
       <c r="P743" s="14" t="s">
@@ -35770,7 +35771,7 @@
       <c r="Q743" s="7"/>
       <c r="R743" s="7"/>
       <c r="V743" s="45" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="744" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35870,7 +35871,7 @@
       <c r="Q746" s="7"/>
       <c r="R746" s="7"/>
       <c r="V746" s="45" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="747" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35964,7 +35965,7 @@
         <v>98</v>
       </c>
       <c r="N749" s="45" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="O749" s="7" t="s">
         <v>0</v>
@@ -35975,7 +35976,7 @@
       <c r="Q749" s="7"/>
       <c r="R749" s="7"/>
       <c r="V749" s="45" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="750" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36067,7 +36068,7 @@
         <v>101</v>
       </c>
       <c r="N752" s="45" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O752" s="7" t="s">
         <v>0</v>
@@ -36076,7 +36077,7 @@
       <c r="Q752" s="7"/>
       <c r="R752" s="7"/>
       <c r="V752" s="45" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="753" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36173,7 +36174,7 @@
         <v>104</v>
       </c>
       <c r="N755" s="45" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="O755" s="6"/>
       <c r="P755" s="14" t="s">
@@ -36185,7 +36186,7 @@
         <v>84</v>
       </c>
       <c r="V755" s="45" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="756" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36253,7 +36254,7 @@
       <c r="Q757" s="7"/>
       <c r="R757" s="7"/>
       <c r="V757" s="45" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="758" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36445,7 +36446,7 @@
         <v>112</v>
       </c>
       <c r="N763" s="45" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="O763" s="6"/>
       <c r="P763" s="14" t="s">
@@ -36454,7 +36455,7 @@
       <c r="Q763" s="7"/>
       <c r="R763" s="7"/>
       <c r="V763" s="45" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="764" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36675,7 +36676,7 @@
         <v>119</v>
       </c>
       <c r="N770" s="45" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="O770" s="6"/>
       <c r="P770" s="14" t="s">
@@ -36684,7 +36685,7 @@
       <c r="Q770" s="7"/>
       <c r="R770" s="7"/>
       <c r="V770" s="45" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="771" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36903,7 +36904,7 @@
         <v>126</v>
       </c>
       <c r="N777" s="45" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O777" s="6"/>
       <c r="P777" s="14" t="s">
@@ -36912,7 +36913,7 @@
       <c r="Q777" s="7"/>
       <c r="R777" s="7"/>
       <c r="V777" s="45" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="778" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37044,7 +37045,7 @@
       <c r="Q781" s="7"/>
       <c r="R781" s="7"/>
       <c r="V781" s="45" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="782" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37103,7 +37104,7 @@
         <v>132</v>
       </c>
       <c r="N783" s="45" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O783" s="7"/>
       <c r="P783" s="14" t="s">
@@ -37112,7 +37113,7 @@
       <c r="Q783" s="7"/>
       <c r="R783" s="7"/>
       <c r="V783" s="45" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="784" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37364,7 +37365,7 @@
         <v>140</v>
       </c>
       <c r="N791" s="45" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O791" s="6"/>
       <c r="P791" s="14" t="s">
@@ -37373,7 +37374,7 @@
       <c r="Q791" s="7"/>
       <c r="R791" s="7"/>
       <c r="V791" s="45" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="792" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37592,7 +37593,7 @@
         <v>147</v>
       </c>
       <c r="N798" s="45" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O798" s="6"/>
       <c r="P798" s="14" t="s">
@@ -37601,7 +37602,7 @@
       <c r="Q798" s="7"/>
       <c r="R798" s="7"/>
       <c r="V798" s="45" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="799" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37795,7 +37796,7 @@
         <v>153</v>
       </c>
       <c r="N804" s="45" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O804" s="7"/>
       <c r="P804" s="14" t="s">
@@ -37804,7 +37805,7 @@
       <c r="Q804" s="7"/>
       <c r="R804" s="7"/>
       <c r="V804" s="45" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38038,7 +38039,7 @@
       <c r="Q811" s="7"/>
       <c r="R811" s="7"/>
       <c r="V811" s="45" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="812" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38146,7 +38147,7 @@
         <v>163</v>
       </c>
       <c r="N814" s="45" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O814" s="7"/>
       <c r="P814" s="14" t="s">
@@ -38155,7 +38156,7 @@
       <c r="Q814" s="7"/>
       <c r="R814" s="7"/>
       <c r="V814" s="45" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="815" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38191,7 +38192,7 @@
       <c r="Q815" s="7"/>
       <c r="R815" s="7"/>
       <c r="V815" s="45" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="816" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38323,7 +38324,7 @@
       <c r="Q819" s="7"/>
       <c r="R819" s="7"/>
       <c r="V819" s="45" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="820" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38428,7 +38429,7 @@
       <c r="Q822" s="7"/>
       <c r="R822" s="7"/>
       <c r="V822" s="45" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="823" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38455,7 +38456,7 @@
         <v>172</v>
       </c>
       <c r="N823" s="45" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="O823" s="6"/>
       <c r="P823" s="14" t="s">
@@ -38464,7 +38465,7 @@
       <c r="Q823" s="7"/>
       <c r="R823" s="7"/>
       <c r="V823" s="45" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="824" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38630,7 +38631,7 @@
       <c r="Q828" s="7"/>
       <c r="R828" s="7"/>
       <c r="V828" s="45" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="829" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38657,7 +38658,7 @@
         <v>178</v>
       </c>
       <c r="N829" s="45" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="O829" s="7" t="s">
         <v>0</v>
@@ -38668,7 +38669,7 @@
       <c r="Q829" s="7"/>
       <c r="R829" s="7"/>
       <c r="V829" s="45" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="830" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38872,7 +38873,7 @@
       <c r="Q835" s="7"/>
       <c r="R835" s="7"/>
       <c r="V835" s="45" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="836" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38945,7 +38946,7 @@
       <c r="Q837" s="7"/>
       <c r="R837" s="7"/>
       <c r="V837" s="45" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="838" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39196,7 +39197,7 @@
         <v>8</v>
       </c>
       <c r="N845" s="45" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O845" s="6"/>
       <c r="P845" s="14" t="s">
@@ -39208,7 +39209,7 @@
         <v>174</v>
       </c>
       <c r="V845" s="45" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="846" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39244,7 +39245,7 @@
       <c r="Q846" s="7"/>
       <c r="R846" s="7"/>
       <c r="V846" s="45" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="847" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39441,7 +39442,7 @@
       <c r="Q852" s="7"/>
       <c r="R852" s="7"/>
       <c r="V852" s="45" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="853" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39468,7 +39469,7 @@
         <v>16</v>
       </c>
       <c r="N853" s="45" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="O853" s="7" t="s">
         <v>0</v>
@@ -39479,7 +39480,7 @@
       <c r="Q853" s="7"/>
       <c r="R853" s="7"/>
       <c r="V853" s="45" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="854" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39631,7 +39632,7 @@
       <c r="Q857" s="7"/>
       <c r="R857" s="7"/>
       <c r="V857" s="45" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="858" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39758,7 +39759,7 @@
         <v>24</v>
       </c>
       <c r="N861" s="45" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="O861" s="7"/>
       <c r="P861" s="14" t="s">
@@ -39767,7 +39768,7 @@
       <c r="Q861" s="7"/>
       <c r="R861" s="7"/>
       <c r="V861" s="45" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="862" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39858,7 +39859,7 @@
         <v>27</v>
       </c>
       <c r="N864" s="45" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="O864" s="6"/>
       <c r="P864" s="14" t="s">
@@ -39867,7 +39868,7 @@
       <c r="Q864" s="7"/>
       <c r="R864" s="7"/>
       <c r="V864" s="45" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="865" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39967,7 +39968,7 @@
       <c r="Q867" s="7"/>
       <c r="R867" s="7"/>
       <c r="V867" s="45" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="868" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40131,7 +40132,7 @@
       <c r="Q872" s="7"/>
       <c r="R872" s="7"/>
       <c r="V872" s="45" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="873" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40223,7 +40224,7 @@
         <v>38</v>
       </c>
       <c r="N875" s="45" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="O875" s="6"/>
       <c r="P875" s="14" t="s">
@@ -40232,7 +40233,7 @@
       <c r="Q875" s="7"/>
       <c r="R875" s="7"/>
       <c r="V875" s="45" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="876" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40451,7 +40452,7 @@
         <v>45</v>
       </c>
       <c r="N882" s="45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="O882" s="6"/>
       <c r="P882" s="14" t="s">
@@ -40460,7 +40461,7 @@
       <c r="Q882" s="7"/>
       <c r="R882" s="7"/>
       <c r="V882" s="45" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="883" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40595,7 +40596,7 @@
       <c r="Q886" s="7"/>
       <c r="R886" s="7"/>
       <c r="V886" s="45" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="887" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40662,7 +40663,7 @@
       <c r="Q888" s="7"/>
       <c r="R888" s="7"/>
       <c r="V888" s="45" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="889" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40826,7 +40827,7 @@
       <c r="Q893" s="7"/>
       <c r="R893" s="7"/>
       <c r="V893" s="45" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="894" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40862,7 +40863,7 @@
       <c r="Q894" s="7"/>
       <c r="R894" s="7"/>
       <c r="V894" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="895" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40898,7 +40899,7 @@
       <c r="Q895" s="7"/>
       <c r="R895" s="7"/>
       <c r="V895" s="45" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="896" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40989,7 +40990,7 @@
         <v>61</v>
       </c>
       <c r="N898" s="45" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="O898" s="7" t="s">
         <v>0</v>
@@ -41000,7 +41001,7 @@
       <c r="Q898" s="7"/>
       <c r="R898" s="7"/>
       <c r="V898" s="45" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="899" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41157,7 +41158,7 @@
         <v>66</v>
       </c>
       <c r="N903" s="45" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O903" s="7" t="s">
         <v>0</v>
@@ -41168,7 +41169,7 @@
       <c r="Q903" s="7"/>
       <c r="R903" s="7"/>
       <c r="V903" s="45" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="904" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41400,7 +41401,7 @@
       <c r="Q910" s="7"/>
       <c r="R910" s="7"/>
       <c r="V910" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="911" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41468,7 +41469,7 @@
       <c r="Q912" s="7"/>
       <c r="R912" s="7"/>
       <c r="V912" s="45" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="913" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41536,7 +41537,7 @@
       <c r="Q914" s="7"/>
       <c r="R914" s="7"/>
       <c r="V914" s="45" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="915" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41693,7 +41694,7 @@
         <v>82</v>
       </c>
       <c r="N919" s="45" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="O919" s="6"/>
       <c r="P919" s="14" t="s">
@@ -41702,7 +41703,7 @@
       <c r="Q919" s="7"/>
       <c r="R919" s="7"/>
       <c r="V919" s="45" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="920" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41929,7 +41930,7 @@
         <v>89</v>
       </c>
       <c r="N926" s="45" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="O926" s="6"/>
       <c r="P926" s="14" t="s">
@@ -41938,7 +41939,7 @@
       <c r="Q926" s="7"/>
       <c r="R926" s="7"/>
       <c r="V926" s="45" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="927" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41974,7 +41975,7 @@
       <c r="Q927" s="7"/>
       <c r="R927" s="7"/>
       <c r="V927" s="45" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="928" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42010,7 +42011,7 @@
       <c r="Q928" s="7"/>
       <c r="R928" s="7"/>
       <c r="V928" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="929" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42133,7 +42134,7 @@
         <v>95</v>
       </c>
       <c r="N932" s="45" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="O932" s="6"/>
       <c r="P932" s="14" t="s">
@@ -42142,7 +42143,7 @@
       <c r="Q932" s="7"/>
       <c r="R932" s="7"/>
       <c r="V932" s="45" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="933" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42337,7 +42338,7 @@
       <c r="Q938" s="7"/>
       <c r="R938" s="7"/>
       <c r="V938" s="45" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="939" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42405,7 +42406,7 @@
       <c r="Q940" s="7"/>
       <c r="R940" s="7"/>
       <c r="V940" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="941" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42441,7 +42442,7 @@
       <c r="Q941" s="7"/>
       <c r="R941" s="7"/>
       <c r="V941" s="45" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="942" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42468,7 +42469,7 @@
         <v>105</v>
       </c>
       <c r="N942" s="45" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="O942" s="7" t="s">
         <v>0</v>
@@ -42479,7 +42480,7 @@
       <c r="Q942" s="7"/>
       <c r="R942" s="7"/>
       <c r="V942" s="45" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="943" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42749,7 +42750,7 @@
         <v>113</v>
       </c>
       <c r="N950" s="45" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="O950" s="6"/>
       <c r="P950" s="14" t="s">
@@ -42758,7 +42759,7 @@
       <c r="Q950" s="7"/>
       <c r="R950" s="7"/>
       <c r="V950" s="45" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="951" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42890,7 +42891,7 @@
       <c r="Q954" s="7"/>
       <c r="R954" s="7"/>
       <c r="V954" s="45" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="955" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42958,7 +42959,7 @@
       <c r="Q956" s="7"/>
       <c r="R956" s="7"/>
       <c r="V956" s="45" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="957" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43090,7 +43091,7 @@
       <c r="Q960" s="7"/>
       <c r="R960" s="7"/>
       <c r="V960" s="45" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="961" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43256,7 +43257,7 @@
       <c r="Q965" s="7"/>
       <c r="R965" s="7"/>
       <c r="V965" s="45" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="966" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43420,7 +43421,7 @@
       <c r="Q970" s="7"/>
       <c r="R970" s="7"/>
       <c r="V970" s="45" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="971" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43456,7 +43457,7 @@
       <c r="Q971" s="7"/>
       <c r="R971" s="7"/>
       <c r="V971" s="45" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="972" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44419,7 +44420,7 @@
       <c r="Q1001" s="7"/>
       <c r="R1001" s="7"/>
       <c r="V1001" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1002" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44722,7 +44723,7 @@
       <c r="Q1010" s="7"/>
       <c r="R1010" s="7"/>
       <c r="V1010" s="45" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1011" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44862,7 +44863,7 @@
       <c r="Q1014" s="7"/>
       <c r="R1014" s="7"/>
       <c r="V1014" s="45" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1015" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44898,7 +44899,7 @@
       <c r="Q1015" s="7"/>
       <c r="R1015" s="7"/>
       <c r="V1015" s="45" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1016" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45259,7 +45260,7 @@
       <c r="Q1026" s="7"/>
       <c r="R1026" s="7"/>
       <c r="V1026" s="45" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1027" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45423,7 +45424,7 @@
       <c r="Q1031" s="7"/>
       <c r="R1031" s="7"/>
       <c r="V1031" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1032" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45494,7 +45495,7 @@
         <v>84</v>
       </c>
       <c r="V1033" s="45" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1034" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45748,7 +45749,7 @@
         <v>204</v>
       </c>
       <c r="N1041" s="57" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="O1041" s="6"/>
       <c r="P1041" s="14" t="s">
@@ -45757,7 +45758,7 @@
       <c r="Q1041" s="7"/>
       <c r="R1041" s="7"/>
       <c r="V1041" s="45" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1042" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46527,7 +46528,7 @@
       <c r="Q1065" s="7"/>
       <c r="R1065" s="7"/>
       <c r="V1065" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1066" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47108,7 +47109,7 @@
       <c r="Q1083" s="7"/>
       <c r="R1083" s="7"/>
       <c r="V1083" s="45" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1084" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47176,7 +47177,7 @@
       <c r="Q1085" s="7"/>
       <c r="R1085" s="7"/>
       <c r="V1085" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1086" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47435,7 +47436,7 @@
       <c r="Q1093" s="7"/>
       <c r="R1093" s="7"/>
       <c r="V1093" s="45" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1094" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47503,7 +47504,7 @@
       <c r="Q1095" s="7"/>
       <c r="R1095" s="7"/>
       <c r="V1095" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1096" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47731,7 +47732,7 @@
       <c r="Q1102" s="7"/>
       <c r="R1102" s="7"/>
       <c r="V1102" s="45" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1103" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47799,7 +47800,7 @@
       <c r="Q1104" s="7"/>
       <c r="R1104" s="7"/>
       <c r="V1104" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1105" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48085,7 +48086,7 @@
       <c r="Q1112" s="7"/>
       <c r="R1112" s="7"/>
       <c r="V1112" s="45" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1113" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48153,7 +48154,7 @@
       <c r="Q1114" s="7"/>
       <c r="R1114" s="7"/>
       <c r="V1114" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1115" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48413,7 +48414,7 @@
       <c r="Q1122" s="7"/>
       <c r="R1122" s="7"/>
       <c r="V1122" s="45" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1123" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48481,7 +48482,7 @@
       <c r="Q1124" s="7"/>
       <c r="R1124" s="7"/>
       <c r="V1124" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1125" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48583,7 +48584,7 @@
       <c r="Q1127" s="7"/>
       <c r="R1127" s="7"/>
       <c r="V1127" s="45" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1128" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48802,7 +48803,7 @@
         <v>93</v>
       </c>
       <c r="N1134" s="45" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="O1134" s="7"/>
       <c r="P1134" s="14" t="s">
@@ -48811,7 +48812,7 @@
       <c r="Q1134" s="7"/>
       <c r="R1134" s="7"/>
       <c r="V1134" s="45" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1135" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48968,7 +48969,7 @@
         <v>98</v>
       </c>
       <c r="N1139" s="45" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="O1139" s="6"/>
       <c r="P1139" s="14" t="s">
@@ -48977,7 +48978,7 @@
       <c r="Q1139" s="7"/>
       <c r="R1139" s="7"/>
       <c r="V1139" s="45" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1140" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49208,7 +49209,7 @@
       <c r="Q1146" s="7"/>
       <c r="R1146" s="7"/>
       <c r="V1146" s="45" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1147" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49308,7 +49309,7 @@
       <c r="Q1149" s="7"/>
       <c r="R1149" s="7"/>
       <c r="V1149" s="45" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1150" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49376,7 +49377,7 @@
       <c r="Q1151" s="7"/>
       <c r="R1151" s="7"/>
       <c r="V1151" s="45" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1152" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49469,7 +49470,7 @@
         <v>113</v>
       </c>
       <c r="N1154" s="45" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="O1154" s="6"/>
       <c r="P1154" s="14" t="s">
@@ -49478,7 +49479,7 @@
       <c r="Q1154" s="7"/>
       <c r="R1154" s="7"/>
       <c r="V1154" s="45" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1155" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49538,7 +49539,7 @@
         <v>115</v>
       </c>
       <c r="N1156" s="45" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="O1156" s="7" t="s">
         <v>0</v>
@@ -49549,7 +49550,7 @@
       <c r="Q1156" s="7"/>
       <c r="R1156" s="7"/>
       <c r="V1156" s="45" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1157" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49755,7 +49756,7 @@
       <c r="Q1162" s="7"/>
       <c r="R1162" s="7"/>
       <c r="V1162" s="45" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1163" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49782,7 +49783,7 @@
         <v>122</v>
       </c>
       <c r="N1163" s="45" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="O1163" s="7" t="s">
         <v>0</v>
@@ -49793,7 +49794,7 @@
       <c r="Q1163" s="7"/>
       <c r="R1163" s="7"/>
       <c r="V1163" s="45" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1164" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49829,7 +49830,7 @@
       <c r="Q1164" s="7"/>
       <c r="R1164" s="7"/>
       <c r="V1164" s="45" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1165" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49897,7 +49898,7 @@
       <c r="Q1166" s="7"/>
       <c r="R1166" s="7"/>
       <c r="V1166" s="45" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1167" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50086,7 +50087,7 @@
         <v>131</v>
       </c>
       <c r="N1172" s="45" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="O1172" s="6"/>
       <c r="P1172" s="14" t="s">
@@ -50095,7 +50096,7 @@
       <c r="Q1172" s="7"/>
       <c r="R1172" s="7"/>
       <c r="V1172" s="45" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1173" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50357,7 +50358,7 @@
       <c r="Q1180" s="7"/>
       <c r="R1180" s="7"/>
       <c r="V1180" s="45" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1181" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51271,7 +51272,7 @@
       <c r="Q1208" s="7"/>
       <c r="R1208" s="7"/>
       <c r="V1208" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1209" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51342,7 +51343,7 @@
       <c r="Q1210" s="7"/>
       <c r="R1210" s="7"/>
       <c r="V1210" s="45" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1211" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51539,7 +51540,7 @@
       <c r="Q1216" s="7"/>
       <c r="R1216" s="7"/>
       <c r="V1216" s="45" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1217" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51630,7 +51631,7 @@
         <v>9</v>
       </c>
       <c r="N1219" s="45" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="O1219" s="6"/>
       <c r="P1219" s="14" t="s">
@@ -51639,7 +51640,7 @@
       <c r="Q1219" s="7"/>
       <c r="R1219" s="7"/>
       <c r="V1219" s="45" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1220" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51903,7 +51904,7 @@
       <c r="Q1227" s="7"/>
       <c r="R1227" s="7"/>
       <c r="V1227" s="45" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1228" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51939,7 +51940,7 @@
       <c r="Q1228" s="7"/>
       <c r="R1228" s="7"/>
       <c r="V1228" s="45" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1229" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52388,7 +52389,7 @@
       <c r="Q1241" s="7"/>
       <c r="R1241" s="7"/>
       <c r="V1241" s="45" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1242" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52528,7 +52529,7 @@
       <c r="Q1245" s="7"/>
       <c r="R1245" s="7"/>
       <c r="V1245" s="45" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1246" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52798,7 +52799,7 @@
         <v>84</v>
       </c>
       <c r="V1253" s="45" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1254" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53063,7 +53064,7 @@
       <c r="Q1261" s="7"/>
       <c r="R1261" s="7"/>
       <c r="V1261" s="45" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1262" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53134,7 +53135,7 @@
       <c r="Q1263" s="7"/>
       <c r="R1263" s="7"/>
       <c r="V1263" s="45" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1264" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53172,7 +53173,7 @@
       <c r="Q1264" s="7"/>
       <c r="R1264" s="7"/>
       <c r="V1264" s="45" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1265" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53247,7 +53248,7 @@
         <v>174</v>
       </c>
       <c r="V1266" s="45" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1267" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53408,7 +53409,7 @@
         <v>61</v>
       </c>
       <c r="N1271" s="45" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="O1271" s="7" t="s">
         <v>0</v>
@@ -53419,7 +53420,7 @@
       <c r="Q1271" s="7"/>
       <c r="R1271" s="7"/>
       <c r="V1271" s="45" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1272" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53806,7 +53807,7 @@
       <c r="Q1282" s="7"/>
       <c r="R1282" s="7"/>
       <c r="V1282" s="45" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1283" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53833,7 +53834,7 @@
         <v>73</v>
       </c>
       <c r="N1283" s="45" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="O1283" s="7" t="s">
         <v>0</v>
@@ -53844,7 +53845,7 @@
       <c r="Q1283" s="7"/>
       <c r="R1283" s="7"/>
       <c r="V1283" s="45" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1284" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53947,7 +53948,7 @@
       <c r="Q1286" s="7"/>
       <c r="R1286" s="7"/>
       <c r="V1286" s="45" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1287" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54047,7 +54048,7 @@
       <c r="Q1289" s="7"/>
       <c r="R1289" s="7"/>
       <c r="V1289" s="45" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1290" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54159,7 +54160,7 @@
         <v>129</v>
       </c>
       <c r="V1292" s="45" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1293" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54262,7 +54263,7 @@
       <c r="Q1295" s="7"/>
       <c r="R1295" s="7"/>
       <c r="V1295" s="45" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1296" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54431,7 +54432,7 @@
       <c r="Q1300" s="7"/>
       <c r="R1300" s="7"/>
       <c r="V1300" s="45" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1301" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54458,7 +54459,7 @@
         <v>91</v>
       </c>
       <c r="N1301" s="45" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="O1301" s="6"/>
       <c r="P1301" s="14" t="s">
@@ -54467,7 +54468,7 @@
       <c r="Q1301" s="7"/>
       <c r="R1301" s="7"/>
       <c r="V1301" s="45" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1302" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54503,7 +54504,7 @@
       <c r="Q1302" s="7"/>
       <c r="R1302" s="7"/>
       <c r="V1302" s="45" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1303" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54539,7 +54540,7 @@
       <c r="Q1303" s="7"/>
       <c r="R1303" s="7"/>
       <c r="V1303" s="45" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1304" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54674,7 +54675,7 @@
       <c r="Q1307" s="7"/>
       <c r="R1307" s="7"/>
       <c r="V1307" s="45" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1308" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54743,7 +54744,7 @@
       <c r="Q1309" s="7"/>
       <c r="R1309" s="7"/>
       <c r="V1309" s="45" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1310" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55072,7 +55073,7 @@
         <v>84</v>
       </c>
       <c r="V1318" s="46" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1319" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55211,7 +55212,7 @@
       <c r="Q1322" s="7"/>
       <c r="R1322" s="7"/>
       <c r="V1322" s="45" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1323" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55314,7 +55315,7 @@
       <c r="Q1325" s="7"/>
       <c r="R1325" s="7"/>
       <c r="V1325" s="45" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1326" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55351,7 +55352,7 @@
       <c r="Q1326" s="7"/>
       <c r="R1326" s="7"/>
       <c r="V1326" s="45" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1327" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55412,7 +55413,7 @@
         <v>118</v>
       </c>
       <c r="N1328" s="45" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O1328" s="7"/>
       <c r="P1328" s="14" t="s">
@@ -55421,7 +55422,7 @@
       <c r="Q1328" s="7"/>
       <c r="R1328" s="7"/>
       <c r="V1328" s="45" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1329" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55460,7 +55461,7 @@
       <c r="Q1329" s="7"/>
       <c r="R1329" s="7"/>
       <c r="V1329" s="45" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1330" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55499,7 +55500,7 @@
       <c r="Q1330" s="7"/>
       <c r="R1330" s="7"/>
       <c r="V1330" s="45" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1331" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55574,7 +55575,7 @@
       <c r="Q1332" s="7"/>
       <c r="R1332" s="7"/>
       <c r="V1332" s="45" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1333" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55647,7 +55648,7 @@
       <c r="Q1334" s="7"/>
       <c r="R1334" s="7"/>
       <c r="V1334" s="45" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55717,7 +55718,7 @@
       <c r="Q1336" s="7"/>
       <c r="R1336" s="7"/>
       <c r="V1336" s="45" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1337" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55820,7 +55821,7 @@
       <c r="Q1339" s="7"/>
       <c r="R1339" s="7"/>
       <c r="V1339" s="45" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1340" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56081,7 +56082,7 @@
         <v>137</v>
       </c>
       <c r="N1347" s="45" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="O1347" s="6"/>
       <c r="P1347" s="14" t="s">
@@ -56090,7 +56091,7 @@
       <c r="Q1347" s="7"/>
       <c r="R1347" s="7"/>
       <c r="V1347" s="45" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1348" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56265,7 +56266,7 @@
       <c r="Q1352" s="7"/>
       <c r="R1352" s="7"/>
       <c r="V1352" s="45" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1353" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56335,7 +56336,7 @@
       <c r="Q1354" s="7"/>
       <c r="R1354" s="7"/>
       <c r="V1354" s="45" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1355" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56398,7 +56399,7 @@
         <v>146</v>
       </c>
       <c r="N1356" s="45" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="O1356" s="7"/>
       <c r="P1356" s="14" t="s">
@@ -56407,7 +56408,7 @@
       <c r="Q1356" s="7"/>
       <c r="R1356" s="7"/>
       <c r="V1356" s="45" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56709,7 +56710,7 @@
       <c r="Q1365" s="7"/>
       <c r="R1365" s="7"/>
       <c r="V1365" s="45" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1366" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56746,7 +56747,7 @@
       <c r="Q1366" s="7"/>
       <c r="R1366" s="7"/>
       <c r="V1366" s="45" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56918,7 +56919,7 @@
         <v>174</v>
       </c>
       <c r="V1371" s="45" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1372" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56946,7 +56947,7 @@
         <v>162</v>
       </c>
       <c r="N1372" s="45" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="O1372" s="6"/>
       <c r="P1372" s="14" t="s">
@@ -56958,7 +56959,7 @@
         <v>84</v>
       </c>
       <c r="V1372" s="45" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1373" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57258,7 +57259,7 @@
         <v>171</v>
       </c>
       <c r="N1381" s="45" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="O1381" s="7" t="s">
         <v>0</v>
@@ -57269,7 +57270,7 @@
       <c r="Q1381" s="7"/>
       <c r="R1381" s="7"/>
       <c r="V1381" s="45" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1382" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57499,7 +57500,7 @@
         <v>178</v>
       </c>
       <c r="N1388" s="45" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="O1388" s="7" t="s">
         <v>0</v>
@@ -57510,7 +57511,7 @@
       <c r="Q1388" s="7"/>
       <c r="R1388" s="7"/>
       <c r="V1388" s="45" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1389" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57580,7 +57581,7 @@
       <c r="Q1390" s="7"/>
       <c r="R1390" s="7"/>
       <c r="V1390" s="45" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1391" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57707,7 +57708,7 @@
         <v>184</v>
       </c>
       <c r="N1394" s="45" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="O1394" s="7" t="s">
         <v>0</v>
@@ -57718,7 +57719,7 @@
       <c r="Q1394" s="7"/>
       <c r="R1394" s="7"/>
       <c r="V1394" s="45" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1395" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57822,7 +57823,7 @@
       <c r="Q1397" s="7"/>
       <c r="R1397" s="7"/>
       <c r="V1397" s="45" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57991,7 +57992,7 @@
       <c r="Q1402" s="7"/>
       <c r="R1402" s="7"/>
       <c r="V1402" s="45" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1403" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58028,7 +58029,7 @@
       <c r="Q1403" s="7"/>
       <c r="R1403" s="7"/>
       <c r="V1403" s="45" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1404" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58065,7 +58066,7 @@
       <c r="Q1404" s="7"/>
       <c r="R1404" s="7"/>
       <c r="V1404" s="45" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1405" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58093,7 +58094,7 @@
         <v>11</v>
       </c>
       <c r="N1405" s="45" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="O1405" s="6"/>
       <c r="P1405" s="14" t="s">
@@ -58102,7 +58103,7 @@
       <c r="Q1405" s="7"/>
       <c r="R1405" s="7"/>
       <c r="V1405" s="45" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58139,7 +58140,7 @@
       <c r="Q1406" s="7"/>
       <c r="R1406" s="7"/>
       <c r="V1406" s="45" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1407" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58212,7 +58213,7 @@
       <c r="Q1408" s="7"/>
       <c r="R1408" s="7"/>
       <c r="V1408" s="45" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1409" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58315,7 +58316,7 @@
       <c r="Q1411" s="7"/>
       <c r="R1411" s="7"/>
       <c r="V1411" s="45" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58486,7 +58487,7 @@
       <c r="Q1416" s="7"/>
       <c r="R1416" s="7"/>
       <c r="V1416" s="45" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1417" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58691,7 +58692,7 @@
         <v>129</v>
       </c>
       <c r="V1422" s="45" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1423" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58728,7 +58729,7 @@
       <c r="Q1423" s="7"/>
       <c r="R1423" s="7"/>
       <c r="V1423" s="45" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1424" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58822,7 +58823,7 @@
         <v>32</v>
       </c>
       <c r="N1426" s="45" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="O1426" s="7" t="s">
         <v>0</v>
@@ -58833,7 +58834,7 @@
       <c r="Q1426" s="7"/>
       <c r="R1426" s="7"/>
       <c r="V1426" s="45" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1427" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59104,7 +59105,7 @@
         <v>40</v>
       </c>
       <c r="N1434" s="45" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="O1434" s="6"/>
       <c r="P1434" s="14" t="s">
@@ -59113,7 +59114,7 @@
       <c r="Q1434" s="7"/>
       <c r="R1434" s="7"/>
       <c r="V1434" s="45" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1435" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59246,7 +59247,7 @@
         <v>44</v>
       </c>
       <c r="N1438" s="45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="O1438" s="7" t="s">
         <v>0</v>
@@ -59257,7 +59258,7 @@
       <c r="Q1438" s="7"/>
       <c r="R1438" s="7"/>
       <c r="V1438" s="45" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1439" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59492,7 +59493,7 @@
       <c r="Q1445" s="7"/>
       <c r="R1445" s="7"/>
       <c r="S1445" s="7" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="T1445" s="7" t="s">
         <v>194</v>
@@ -59557,7 +59558,7 @@
         <v>53</v>
       </c>
       <c r="N1447" s="45" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="O1447" s="6"/>
       <c r="P1447" s="14" t="s">
@@ -59566,7 +59567,7 @@
       <c r="Q1447" s="7"/>
       <c r="R1447" s="7"/>
       <c r="V1447" s="45" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1448" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59669,7 +59670,7 @@
       <c r="Q1450" s="7"/>
       <c r="R1450" s="7"/>
       <c r="V1450" s="45" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1451" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59706,7 +59707,7 @@
       <c r="Q1451" s="7"/>
       <c r="R1451" s="7"/>
       <c r="V1451" s="45" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1452" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59982,7 +59983,7 @@
         <v>174</v>
       </c>
       <c r="V1459" s="45" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1460" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60019,7 +60020,7 @@
       <c r="Q1460" s="7"/>
       <c r="R1460" s="7"/>
       <c r="V1460" s="45" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60082,7 +60083,7 @@
         <v>68</v>
       </c>
       <c r="N1462" s="45" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="O1462" s="6"/>
       <c r="P1462" s="14" t="s">
@@ -60091,7 +60092,7 @@
       <c r="Q1462" s="7"/>
       <c r="R1462" s="7"/>
       <c r="V1462" s="45" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1463" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60128,7 +60129,7 @@
       <c r="Q1463" s="7"/>
       <c r="R1463" s="7"/>
       <c r="V1463" s="45" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1464" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60201,7 +60202,7 @@
       <c r="Q1465" s="7"/>
       <c r="R1465" s="7"/>
       <c r="V1465" s="45" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60238,7 +60239,7 @@
       <c r="Q1466" s="7"/>
       <c r="R1466" s="7"/>
       <c r="V1466" s="45" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1467" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60332,7 +60333,7 @@
         <v>75</v>
       </c>
       <c r="N1469" s="45" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="O1469" s="6"/>
       <c r="P1469" s="14" t="s">
@@ -60341,7 +60342,7 @@
       <c r="Q1469" s="7"/>
       <c r="R1469" s="7"/>
       <c r="V1469" s="45" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60513,7 +60514,7 @@
       <c r="Q1474" s="7"/>
       <c r="R1474" s="7"/>
       <c r="V1474" s="45" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1475" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60820,7 +60821,7 @@
         <v>89</v>
       </c>
       <c r="N1483" s="45" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="O1483" s="6"/>
       <c r="P1483" s="14" t="s">
@@ -60829,7 +60830,7 @@
       <c r="Q1483" s="7"/>
       <c r="R1483" s="7"/>
       <c r="V1483" s="45" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1484" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60923,7 +60924,7 @@
         <v>92</v>
       </c>
       <c r="N1486" s="45" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="O1486" s="7" t="s">
         <v>0</v>
@@ -60934,7 +60935,7 @@
       <c r="Q1486" s="7"/>
       <c r="R1486" s="7"/>
       <c r="V1486" s="45" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1487" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61239,7 +61240,7 @@
         <v>101</v>
       </c>
       <c r="N1495" s="45" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="O1495" s="6"/>
       <c r="P1495" s="14" t="s">
@@ -61248,7 +61249,7 @@
       <c r="Q1495" s="7"/>
       <c r="R1495" s="7"/>
       <c r="V1495" s="45" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1496" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61309,7 +61310,7 @@
         <v>103</v>
       </c>
       <c r="N1497" s="45" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="O1497" s="6"/>
       <c r="P1497" s="14" t="s">
@@ -61318,7 +61319,7 @@
       <c r="Q1497" s="7"/>
       <c r="R1497" s="7"/>
       <c r="V1497" s="45" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1498" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61544,7 +61545,7 @@
         <v>110</v>
       </c>
       <c r="N1504" s="45" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="O1504" s="7" t="s">
         <v>0</v>
@@ -61555,7 +61556,7 @@
       <c r="Q1504" s="7"/>
       <c r="R1504" s="7"/>
       <c r="V1504" s="45" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1505" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61762,7 +61763,7 @@
         <v>116</v>
       </c>
       <c r="N1510" s="45" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O1510" s="6" t="s">
         <v>17</v>
@@ -61773,7 +61774,7 @@
       <c r="Q1510" s="7"/>
       <c r="R1510" s="7"/>
       <c r="V1510" s="45" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1511" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61980,7 +61981,7 @@
       <c r="Q1516" s="7"/>
       <c r="R1516" s="7"/>
       <c r="V1516" s="45" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1517" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62108,7 +62109,7 @@
         <v>126</v>
       </c>
       <c r="N1520" s="45" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="O1520" s="6"/>
       <c r="P1520" s="14" t="s">
@@ -62117,7 +62118,7 @@
       <c r="Q1520" s="7"/>
       <c r="R1520" s="7"/>
       <c r="V1520" s="45" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62267,7 +62268,7 @@
         <v>133</v>
       </c>
       <c r="V1524" s="45" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1525" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62337,7 +62338,7 @@
       <c r="Q1526" s="7"/>
       <c r="R1526" s="7"/>
       <c r="V1526" s="45" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62497,7 +62498,7 @@
         <v>137</v>
       </c>
       <c r="N1531" s="45" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="O1531" s="6"/>
       <c r="P1531" s="14" t="s">
@@ -62506,7 +62507,7 @@
       <c r="Q1531" s="7"/>
       <c r="R1531" s="7"/>
       <c r="V1531" s="45" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62544,7 +62545,7 @@
       <c r="Q1532" s="7"/>
       <c r="R1532" s="7"/>
       <c r="V1532" s="45" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62826,7 +62827,7 @@
         <v>146</v>
       </c>
       <c r="N1540" s="45" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="O1540" s="6"/>
       <c r="P1540" s="14" t="s">
@@ -62835,7 +62836,7 @@
       <c r="Q1540" s="7"/>
       <c r="R1540" s="7"/>
       <c r="V1540" s="45" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1541" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63149,7 +63150,7 @@
         <v>156</v>
       </c>
       <c r="N1550" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O1550" s="6"/>
       <c r="P1550" s="14" t="s">
@@ -63158,7 +63159,7 @@
       <c r="Q1550" s="7"/>
       <c r="R1550" s="7"/>
       <c r="V1550" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1551" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63226,7 +63227,7 @@
       <c r="Q1552" s="7"/>
       <c r="R1552" s="7"/>
       <c r="V1552" s="45" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1553" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63262,7 +63263,7 @@
       <c r="Q1553" s="7"/>
       <c r="R1553" s="7"/>
       <c r="V1553" s="45" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1554" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63300,7 +63301,7 @@
       <c r="Q1554" s="7"/>
       <c r="R1554" s="7"/>
       <c r="V1554" s="45" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1555" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63465,7 +63466,7 @@
         <v>165</v>
       </c>
       <c r="N1559" s="45" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="O1559" s="6"/>
       <c r="P1559" s="14" t="s">
@@ -63474,7 +63475,7 @@
       <c r="Q1559" s="7"/>
       <c r="R1559" s="7"/>
       <c r="V1559" s="45" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1560" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63609,7 +63610,7 @@
       <c r="Q1563" s="7"/>
       <c r="R1563" s="7"/>
       <c r="V1563" s="45" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1564" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63645,7 +63646,7 @@
       <c r="Q1564" s="7"/>
       <c r="R1564" s="7"/>
       <c r="V1564" s="45" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1565" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63768,7 +63769,7 @@
         <v>174</v>
       </c>
       <c r="N1568" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="O1568" s="6"/>
       <c r="P1568" s="14" t="s">
@@ -63777,7 +63778,7 @@
       <c r="Q1568" s="7"/>
       <c r="R1568" s="7"/>
       <c r="V1568" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1569" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63845,7 +63846,7 @@
       <c r="Q1570" s="7"/>
       <c r="R1570" s="7"/>
       <c r="V1570" s="45" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1571" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63881,7 +63882,7 @@
       <c r="Q1571" s="7"/>
       <c r="R1571" s="7"/>
       <c r="V1571" s="45" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1572" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63981,7 +63982,7 @@
       <c r="Q1574" s="7"/>
       <c r="R1574" s="7"/>
       <c r="V1574" s="45" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1575" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64017,7 +64018,7 @@
       <c r="Q1575" s="7"/>
       <c r="R1575" s="7"/>
       <c r="V1575" s="45" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1576" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64085,7 +64086,7 @@
       <c r="Q1577" s="7"/>
       <c r="R1577" s="7"/>
       <c r="V1577" s="45" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1578" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64312,13 +64313,13 @@
         <v>192</v>
       </c>
       <c r="N1586" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1586" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1586" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1587" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64396,7 +64397,7 @@
       </c>
       <c r="P1589" s="14"/>
       <c r="V1589" s="45" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1590" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64426,7 +64427,7 @@
       </c>
       <c r="P1590" s="14"/>
       <c r="V1590" s="45" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1591" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64544,13 +64545,13 @@
         <v>201</v>
       </c>
       <c r="N1595" s="45" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="P1595" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1595" s="45" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1596" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64628,7 +64629,7 @@
       </c>
       <c r="P1598" s="14"/>
       <c r="V1598" s="45" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1599" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64681,7 +64682,7 @@
         <v>17</v>
       </c>
       <c r="V1600" s="45" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1601" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64776,13 +64777,13 @@
         <v>210</v>
       </c>
       <c r="N1604" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1604" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1604" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1605" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64835,7 +64836,7 @@
         <v>17</v>
       </c>
       <c r="V1606" s="45" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1607" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64891,7 +64892,7 @@
         <v>17</v>
       </c>
       <c r="V1608" s="45" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1609" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64927,7 +64928,7 @@
         <v>178</v>
       </c>
       <c r="V1609" s="45" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1610" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64974,7 +64975,7 @@
         <v>217</v>
       </c>
       <c r="N1611" s="45" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="O1611" s="6" t="s">
         <v>17</v>
@@ -64983,7 +64984,7 @@
         <v>18</v>
       </c>
       <c r="V1611" s="45" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1612" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65094,7 +65095,7 @@
       </c>
       <c r="P1615" s="14"/>
       <c r="V1615" s="45" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1616" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65124,7 +65125,7 @@
       </c>
       <c r="P1616" s="14"/>
       <c r="V1616" s="45" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1617" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65219,13 +65220,13 @@
         <v>226</v>
       </c>
       <c r="N1620" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1620" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1620" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1621" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65374,7 +65375,7 @@
         <v>17</v>
       </c>
       <c r="V1626" s="45" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1627" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65499,13 +65500,13 @@
         <v>237</v>
       </c>
       <c r="N1631" s="45" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P1631" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1631" s="45" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1632" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65610,7 +65611,7 @@
       </c>
       <c r="P1635" s="14"/>
       <c r="V1635" s="45" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1636" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65705,13 +65706,13 @@
         <v>245</v>
       </c>
       <c r="N1639" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1639" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1639" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1640" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65967,7 +65968,7 @@
         <v>18</v>
       </c>
       <c r="V1649" s="45" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1650" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66215,13 +66216,13 @@
         <v>265</v>
       </c>
       <c r="N1659" s="45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1659" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1659" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1660" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66347,7 +66348,7 @@
       </c>
       <c r="P1664" s="14"/>
       <c r="V1664" s="45" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1665" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66448,7 +66449,7 @@
         <v>18</v>
       </c>
       <c r="V1668" s="45" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1669" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66696,13 +66697,13 @@
         <v>284</v>
       </c>
       <c r="N1678" s="57" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P1678" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1678" s="45" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66730,7 +66731,7 @@
       </c>
       <c r="P1679" s="14"/>
       <c r="V1679" s="45" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1680" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66784,7 +66785,7 @@
       </c>
       <c r="P1681" s="14"/>
       <c r="V1681" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1682" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66910,7 +66911,7 @@
       </c>
       <c r="P1686" s="14"/>
       <c r="V1686" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1687" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66988,7 +66989,7 @@
       </c>
       <c r="P1689" s="14"/>
       <c r="V1689" s="45" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1690" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67042,7 +67043,7 @@
       </c>
       <c r="P1691" s="14"/>
       <c r="V1691" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1692" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67120,7 +67121,7 @@
       </c>
       <c r="P1694" s="14"/>
       <c r="V1694" s="45" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1695" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67174,7 +67175,7 @@
       </c>
       <c r="P1696" s="14"/>
       <c r="V1696" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1697" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67228,7 +67229,7 @@
       </c>
       <c r="P1698" s="14"/>
       <c r="V1698" s="45" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1699" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67890,7 +67891,7 @@
         <v>18</v>
       </c>
       <c r="V1725" s="45" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1726" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68056,13 +68057,13 @@
         <v>54</v>
       </c>
       <c r="N1732" s="45" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="P1732" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1732" s="45" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1733" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68236,7 +68237,7 @@
       </c>
       <c r="P1739" s="14"/>
       <c r="V1739" s="45" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1740" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68289,7 +68290,7 @@
         <v>18</v>
       </c>
       <c r="V1741" s="45" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1742" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68582,7 +68583,7 @@
         <v>174</v>
       </c>
       <c r="V1752" s="45" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1753" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68749,13 +68750,13 @@
         <v>81</v>
       </c>
       <c r="N1759" s="45" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="P1759" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1759" s="45" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1760" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68877,13 +68878,13 @@
         <v>86</v>
       </c>
       <c r="N1764" s="45" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="P1764" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1764" s="45" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1765" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68913,7 +68914,7 @@
       </c>
       <c r="P1765" s="14"/>
       <c r="V1765" s="45" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1766" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68943,7 +68944,7 @@
       </c>
       <c r="P1766" s="14"/>
       <c r="V1766" s="45" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1767" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69020,7 +69021,7 @@
         <v>18</v>
       </c>
       <c r="V1769" s="45" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1770" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69097,7 +69098,7 @@
         <v>94</v>
       </c>
       <c r="N1772" s="45" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="P1772" s="14" t="s">
         <v>18</v>
@@ -69106,7 +69107,7 @@
         <v>129</v>
       </c>
       <c r="V1772" s="45" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1773" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69193,7 +69194,7 @@
       </c>
       <c r="P1775" s="14"/>
       <c r="V1775" s="45" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1776" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69314,7 +69315,7 @@
         <v>18</v>
       </c>
       <c r="V1779" s="45" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1780" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69427,10 +69428,10 @@
         <v>1055</v>
       </c>
       <c r="S1783" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="T1783" s="7" t="s">
         <v>1914</v>
-      </c>
-      <c r="T1783" s="7" t="s">
-        <v>1915</v>
       </c>
       <c r="V1783" s="45"/>
     </row>
@@ -69457,13 +69458,13 @@
         <v>106</v>
       </c>
       <c r="N1784" s="45" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="P1784" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1784" s="45" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1785" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69517,7 +69518,7 @@
       </c>
       <c r="P1786" s="14"/>
       <c r="V1786" s="45" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1787" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69550,7 +69551,7 @@
       </c>
       <c r="P1787" s="14"/>
       <c r="V1787" s="45" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1788" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69633,13 +69634,13 @@
         <v>112</v>
       </c>
       <c r="N1790" s="45" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="P1790" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1790" s="45" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1791" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69693,7 +69694,7 @@
       </c>
       <c r="P1792" s="14"/>
       <c r="V1792" s="45" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1793" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69797,7 +69798,7 @@
         <v>18</v>
       </c>
       <c r="V1796" s="45" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1797" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69926,7 +69927,7 @@
       </c>
       <c r="P1801" s="14"/>
       <c r="V1801" s="45" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1802" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70024,13 +70025,13 @@
         <v>127</v>
       </c>
       <c r="N1805" s="45" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="P1805" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1805" s="45" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1806" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70288,7 +70289,7 @@
       </c>
       <c r="P1815" s="14"/>
       <c r="V1815" s="45" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1816" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70344,7 +70345,7 @@
         <v>18</v>
       </c>
       <c r="V1817" s="45" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1818" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70526,7 +70527,7 @@
         <v>18</v>
       </c>
       <c r="V1824" s="45" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1825" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70652,7 +70653,7 @@
       </c>
       <c r="P1829" s="14"/>
       <c r="V1829" s="45" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1830" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70705,7 +70706,7 @@
         <v>18</v>
       </c>
       <c r="V1831" s="45" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1832" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70833,7 +70834,7 @@
         <v>17</v>
       </c>
       <c r="V1836" s="45" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1837" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70910,7 +70911,7 @@
         <v>18</v>
       </c>
       <c r="V1839" s="45" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1840" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71152,7 +71153,7 @@
         <v>84</v>
       </c>
       <c r="V1848" s="45" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1849" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71392,13 +71393,13 @@
         <v>9</v>
       </c>
       <c r="N1857" s="45" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="P1857" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1857" s="45" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1858" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71589,13 +71590,13 @@
         <v>17</v>
       </c>
       <c r="N1865" s="45" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P1865" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1865" s="45" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1866" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71682,7 +71683,7 @@
       </c>
       <c r="P1868" s="14"/>
       <c r="V1868" s="45" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1869" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71762,7 +71763,7 @@
         <v>23</v>
       </c>
       <c r="N1871" s="45" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="O1871" s="7" t="s">
         <v>0</v>
@@ -71774,7 +71775,7 @@
         <v>174</v>
       </c>
       <c r="V1871" s="45" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1872" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -71968,13 +71969,13 @@
         <v>31</v>
       </c>
       <c r="N1879" s="45" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P1879" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1879" s="45" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1880" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72004,7 +72005,7 @@
       </c>
       <c r="P1880" s="14"/>
       <c r="V1880" s="45" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1881" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72043,7 +72044,7 @@
         <v>97</v>
       </c>
       <c r="V1881" s="45" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1882" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72198,13 +72199,13 @@
         <v>39</v>
       </c>
       <c r="N1887" s="45" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="P1887" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1887" s="45" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1888" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72435,7 +72436,7 @@
       </c>
       <c r="P1896" s="14"/>
       <c r="V1896" s="45" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1897" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72458,13 +72459,13 @@
         <v>49</v>
       </c>
       <c r="N1897" s="45" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="P1897" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1897" s="45" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1898" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72541,7 +72542,7 @@
       </c>
       <c r="P1900" s="14"/>
       <c r="V1900" s="45" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1901" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72669,13 +72670,13 @@
         <v>57</v>
       </c>
       <c r="N1905" s="45" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="P1905" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1905" s="45" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1906" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72705,7 +72706,7 @@
       </c>
       <c r="P1906" s="14"/>
       <c r="V1906" s="45" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1907" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72735,7 +72736,7 @@
       </c>
       <c r="P1907" s="14"/>
       <c r="V1907" s="45" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1908" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72854,13 +72855,13 @@
         <v>64</v>
       </c>
       <c r="N1912" s="45" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="P1912" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1912" s="45" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1913" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72938,7 +72939,7 @@
       </c>
       <c r="P1915" s="14"/>
       <c r="V1915" s="45" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1916" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -72968,7 +72969,7 @@
       </c>
       <c r="P1916" s="14"/>
       <c r="V1916" s="45" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1917" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73021,7 +73022,7 @@
         <v>18</v>
       </c>
       <c r="V1918" s="45" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1919" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73323,13 +73324,13 @@
         <v>81</v>
       </c>
       <c r="N1929" s="45" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="P1929" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1929" s="45" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1930" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73471,7 +73472,7 @@
         <v>18</v>
       </c>
       <c r="V1934" s="45" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1935" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73501,7 +73502,7 @@
       </c>
       <c r="P1935" s="14"/>
       <c r="V1935" s="45" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1936" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73555,7 +73556,7 @@
       </c>
       <c r="P1937" s="14"/>
       <c r="V1937" s="45" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1938" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73656,7 +73657,7 @@
         <v>93</v>
       </c>
       <c r="N1941" s="45" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="O1941" s="7" t="s">
         <v>0</v>
@@ -73665,7 +73666,7 @@
         <v>18</v>
       </c>
       <c r="V1941" s="45" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1942" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73808,13 +73809,13 @@
         <v>99</v>
       </c>
       <c r="N1947" s="45" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="P1947" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1947" s="45" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1948" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73894,7 +73895,7 @@
         <v>84</v>
       </c>
       <c r="V1950" s="45" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1951" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73995,13 +73996,13 @@
         <v>106</v>
       </c>
       <c r="N1954" s="45" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="P1954" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1954" s="45" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1955" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74059,7 +74060,7 @@
         <v>174</v>
       </c>
       <c r="V1956" s="45" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1957" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74205,13 +74206,13 @@
         <v>114</v>
       </c>
       <c r="N1962" s="45" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="P1962" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1962" s="45" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74430,13 +74431,13 @@
         <v>123</v>
       </c>
       <c r="N1971" s="45" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="P1971" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1971" s="45" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1972" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74466,7 +74467,7 @@
       </c>
       <c r="P1972" s="14"/>
       <c r="V1972" s="45" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1973" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74544,7 +74545,7 @@
       </c>
       <c r="P1975" s="14"/>
       <c r="V1975" s="45" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1976" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74591,13 +74592,13 @@
         <v>129</v>
       </c>
       <c r="N1977" s="45" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="P1977" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1977" s="45" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1978" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74627,7 +74628,7 @@
       </c>
       <c r="P1978" s="14"/>
       <c r="V1978" s="45" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1979" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74773,7 +74774,7 @@
         <v>136</v>
       </c>
       <c r="N1984" s="45" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O1984" s="7" t="s">
         <v>0</v>
@@ -74782,7 +74783,7 @@
         <v>18</v>
       </c>
       <c r="V1984" s="45" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1985" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -74865,7 +74866,7 @@
         <v>17</v>
       </c>
       <c r="V1987" s="45" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1988" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75035,13 +75036,13 @@
         <v>145</v>
       </c>
       <c r="N1993" s="45" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="P1993" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V1993" s="45" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1994" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75234,7 +75235,7 @@
         <v>18</v>
       </c>
       <c r="V2000" s="45" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="2001" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75405,7 +75406,7 @@
       </c>
       <c r="P2006" s="14"/>
       <c r="V2006" s="45" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2007" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75476,13 +75477,13 @@
         <v>161</v>
       </c>
       <c r="N2009" s="45" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="P2009" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2009" s="45" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="2010" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75593,7 +75594,7 @@
       </c>
       <c r="P2013" s="14"/>
       <c r="V2013" s="45" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2014" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75712,7 +75713,7 @@
         <v>170</v>
       </c>
       <c r="N2018" s="45" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="O2018" s="7" t="s">
         <v>0</v>
@@ -75721,7 +75722,7 @@
         <v>18</v>
       </c>
       <c r="V2018" s="45" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="2019" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75949,7 +75950,7 @@
       </c>
       <c r="P2027" s="14"/>
       <c r="V2027" s="45" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2028" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -75972,7 +75973,7 @@
         <v>180</v>
       </c>
       <c r="N2028" s="45" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="O2028" s="7" t="s">
         <v>0</v>
@@ -75981,7 +75982,7 @@
         <v>18</v>
       </c>
       <c r="V2028" s="45" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="2029" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76109,7 +76110,7 @@
     </row>
     <row r="2034" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2034" s="56" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="I2034" s="48" t="s">
         <v>64</v>
@@ -76164,7 +76165,7 @@
       </c>
       <c r="P2035" s="14"/>
       <c r="V2035" s="45" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2036" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76238,13 +76239,13 @@
         <v>190</v>
       </c>
       <c r="N2038" s="45" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="P2038" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2038" s="45" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="2039" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76298,7 +76299,7 @@
       </c>
       <c r="P2040" s="14"/>
       <c r="V2040" s="45" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2041" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76328,7 +76329,7 @@
       </c>
       <c r="P2041" s="14"/>
       <c r="V2041" s="45" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2042" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76357,7 +76358,7 @@
         <v>17</v>
       </c>
       <c r="V2042" s="45" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2043" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76437,7 +76438,7 @@
         <v>18</v>
       </c>
       <c r="V2045" s="45" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2046" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76717,7 +76718,7 @@
         <v>18</v>
       </c>
       <c r="V2055" s="45" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="2056" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76747,7 +76748,7 @@
       </c>
       <c r="P2056" s="14"/>
       <c r="V2056" s="45" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2057" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -76825,7 +76826,7 @@
       </c>
       <c r="P2059" s="14"/>
       <c r="V2059" s="45" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2060" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77071,7 +77072,7 @@
       </c>
       <c r="P2069" s="14"/>
       <c r="V2069" s="45" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="2070" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77101,7 +77102,7 @@
       </c>
       <c r="P2070" s="14"/>
       <c r="V2070" s="45" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2071" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77316,13 +77317,13 @@
         <v>231</v>
       </c>
       <c r="N2079" s="45" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="P2079" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2079" s="45" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="2080" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77352,7 +77353,7 @@
       </c>
       <c r="P2080" s="14"/>
       <c r="V2080" s="45" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2081" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77504,13 +77505,13 @@
         <v>238</v>
       </c>
       <c r="N2086" s="57" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="P2086" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2086" s="45" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="2087" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77661,7 +77662,7 @@
       </c>
       <c r="P2092" s="14"/>
       <c r="V2092" s="45" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2093" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77684,13 +77685,13 @@
         <v>7</v>
       </c>
       <c r="N2093" s="45" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="P2093" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2093" s="45" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="2094" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77785,13 +77786,13 @@
         <v>11</v>
       </c>
       <c r="N2097" s="45" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="P2097" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2097" s="45" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="2098" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77893,7 +77894,7 @@
       </c>
       <c r="P2101" s="14"/>
       <c r="V2101" s="45" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="2102" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -77964,13 +77965,13 @@
         <v>18</v>
       </c>
       <c r="N2104" s="45" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="P2104" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2104" s="45" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2105" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78071,7 +78072,7 @@
         <v>18</v>
       </c>
       <c r="V2108" s="45" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="2109" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78145,13 +78146,13 @@
         <v>25</v>
       </c>
       <c r="N2111" s="45" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="P2111" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2111" s="45" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="2112" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78300,7 +78301,7 @@
         <v>18</v>
       </c>
       <c r="V2117" s="45" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2118" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78449,13 +78450,13 @@
         <v>37</v>
       </c>
       <c r="N2123" s="45" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="P2123" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2123" s="45" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="2124" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78550,7 +78551,7 @@
         <v>41</v>
       </c>
       <c r="N2127" s="45" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O2127" s="7" t="s">
         <v>0</v>
@@ -78559,7 +78560,7 @@
         <v>18</v>
       </c>
       <c r="V2127" s="45" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="2128" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78775,7 +78776,7 @@
       </c>
       <c r="P2135" s="14"/>
       <c r="V2135" s="45" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2136" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -78798,7 +78799,7 @@
         <v>50</v>
       </c>
       <c r="N2136" s="45" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="O2136" s="7" t="s">
         <v>0</v>
@@ -78807,7 +78808,7 @@
         <v>18</v>
       </c>
       <c r="V2136" s="45" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="2137" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79060,13 +79061,13 @@
         <v>60</v>
       </c>
       <c r="N2146" s="45" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P2146" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2146" s="45" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="2147" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79161,7 +79162,7 @@
         <v>64</v>
       </c>
       <c r="N2150" s="45" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="O2150" s="7" t="s">
         <v>0</v>
@@ -79170,7 +79171,7 @@
         <v>18</v>
       </c>
       <c r="V2150" s="45" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2151" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79247,7 +79248,7 @@
         <v>18</v>
       </c>
       <c r="V2153" s="45" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="2154" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79325,7 +79326,7 @@
       </c>
       <c r="P2156" s="14"/>
       <c r="V2156" s="45" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2157" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79379,7 +79380,7 @@
       </c>
       <c r="P2158" s="14"/>
       <c r="V2158" s="45" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2159" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79426,13 +79427,13 @@
         <v>74</v>
       </c>
       <c r="N2160" s="45" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="P2160" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2160" s="45" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="2161" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79534,7 +79535,7 @@
       </c>
       <c r="P2164" s="14"/>
       <c r="V2164" s="45" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2165" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79564,7 +79565,7 @@
       </c>
       <c r="P2165" s="14"/>
       <c r="V2165" s="45" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2166" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79635,13 +79636,13 @@
         <v>82</v>
       </c>
       <c r="N2168" s="45" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="P2168" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2168" s="45" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79835,7 +79836,7 @@
         <v>90</v>
       </c>
       <c r="N2176" s="45" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="P2176" s="14" t="s">
         <v>18</v>
@@ -79844,7 +79845,7 @@
         <v>84</v>
       </c>
       <c r="V2176" s="45" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2177" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -79945,7 +79946,7 @@
         <v>18</v>
       </c>
       <c r="V2180" s="45" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2181" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80124,7 +80125,7 @@
       </c>
       <c r="P2187" s="14"/>
       <c r="V2187" s="45" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2188" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80156,7 +80157,7 @@
         <v>174</v>
       </c>
       <c r="V2188" s="45" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2189" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80233,7 +80234,7 @@
         <v>18</v>
       </c>
       <c r="V2191" s="45" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="2192" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80374,7 +80375,7 @@
       </c>
       <c r="P2196" s="14"/>
       <c r="V2196" s="45" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2197" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80523,7 +80524,7 @@
         <v>18</v>
       </c>
       <c r="V2202" s="45" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2203" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80548,8 +80549,8 @@
         <f t="shared" si="104"/>
         <v>117</v>
       </c>
-      <c r="N2203" s="45" t="s">
-        <v>1247</v>
+      <c r="N2203" s="78" t="s">
+        <v>341</v>
       </c>
       <c r="V2203" s="45"/>
     </row>
@@ -80576,7 +80577,7 @@
         <v>118</v>
       </c>
       <c r="N2204" s="45" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="V2204" s="45"/>
     </row>
@@ -80603,7 +80604,7 @@
         <v>119</v>
       </c>
       <c r="N2205" s="45" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="O2205" s="7" t="s">
         <v>0</v>
@@ -80613,7 +80614,7 @@
         <v>110</v>
       </c>
       <c r="V2205" s="45" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="2206" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80642,7 +80643,7 @@
         <v>120</v>
       </c>
       <c r="N2206" s="45" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O2206" s="7" t="s">
         <v>0</v>
@@ -80652,7 +80653,7 @@
         <v>109</v>
       </c>
       <c r="V2206" s="45" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="2207" spans="6:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80741,7 +80742,7 @@
         <v>123</v>
       </c>
       <c r="N2209" s="45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V2209" s="45"/>
     </row>
@@ -80795,7 +80796,7 @@
         <v>125</v>
       </c>
       <c r="N2211" s="45" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="V2211" s="45"/>
     </row>
@@ -80822,13 +80823,13 @@
         <v>126</v>
       </c>
       <c r="N2212" s="45" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="P2212" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2212" s="45" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2213" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -80935,7 +80936,7 @@
         <v>130</v>
       </c>
       <c r="N2216" s="45" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V2216" s="45"/>
     </row>
@@ -80989,14 +80990,14 @@
         <v>132</v>
       </c>
       <c r="N2218" s="45" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O2218" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P2218" s="14"/>
       <c r="V2218" s="45" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2219" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81076,7 +81077,7 @@
         <v>135</v>
       </c>
       <c r="N2221" s="45" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="S2221" s="7" t="s">
         <v>154</v>
@@ -81139,7 +81140,7 @@
         <v>137</v>
       </c>
       <c r="N2223" s="45" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V2223" s="45"/>
     </row>
@@ -81166,13 +81167,13 @@
         <v>138</v>
       </c>
       <c r="N2224" s="45" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="P2224" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2224" s="45" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="2225" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81222,7 +81223,7 @@
         <v>140</v>
       </c>
       <c r="N2226" s="45" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V2226" s="45"/>
     </row>
@@ -81246,7 +81247,7 @@
         <v>141</v>
       </c>
       <c r="N2227" s="45" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="U2227" s="7" t="s">
         <v>97</v>
@@ -81297,7 +81298,7 @@
         <v>143</v>
       </c>
       <c r="N2229" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V2229" s="45"/>
     </row>
@@ -81321,7 +81322,7 @@
         <v>144</v>
       </c>
       <c r="N2230" s="45" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V2230" s="45"/>
     </row>
@@ -81345,14 +81346,14 @@
         <v>145</v>
       </c>
       <c r="N2231" s="45" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O2231" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P2231" s="14"/>
       <c r="V2231" s="45" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2232" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81375,13 +81376,13 @@
         <v>146</v>
       </c>
       <c r="N2232" s="45" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="P2232" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2232" s="45" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="2233" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81428,7 +81429,7 @@
         <v>148</v>
       </c>
       <c r="N2234" s="45" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V2234" s="45"/>
     </row>
@@ -81452,7 +81453,7 @@
         <v>149</v>
       </c>
       <c r="N2235" s="45" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V2235" s="45"/>
     </row>
@@ -81476,7 +81477,7 @@
         <v>150</v>
       </c>
       <c r="N2236" s="45" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V2236" s="45"/>
     </row>
@@ -81499,7 +81500,7 @@
         <v>151</v>
       </c>
       <c r="N2237" s="45" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V2237" s="45"/>
     </row>
@@ -81574,13 +81575,13 @@
         <v>154</v>
       </c>
       <c r="N2240" s="45" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="P2240" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2240" s="46" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="2241" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81687,13 +81688,13 @@
         <v>158</v>
       </c>
       <c r="N2244" s="45" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="P2244" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2244" s="45" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="2245" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81770,7 +81771,7 @@
         <v>17</v>
       </c>
       <c r="V2247" s="45" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2248" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81817,7 +81818,7 @@
         <v>163</v>
       </c>
       <c r="N2249" s="45" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V2249" s="45"/>
     </row>
@@ -81865,7 +81866,7 @@
         <v>165</v>
       </c>
       <c r="N2251" s="45" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="O2251" s="7" t="s">
         <v>0</v>
@@ -81874,7 +81875,7 @@
         <v>18</v>
       </c>
       <c r="V2251" s="45" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2252" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -81945,13 +81946,13 @@
         <v>168</v>
       </c>
       <c r="N2254" s="45" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="P2254" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2254" s="45" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="2255" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82001,14 +82002,14 @@
         <v>170</v>
       </c>
       <c r="N2256" s="45" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O2256" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P2256" s="14"/>
       <c r="V2256" s="45" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2257" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82031,7 +82032,7 @@
         <v>171</v>
       </c>
       <c r="N2257" s="45" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V2257" s="45"/>
     </row>
@@ -82055,7 +82056,7 @@
         <v>172</v>
       </c>
       <c r="N2258" s="45" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V2258" s="45"/>
     </row>
@@ -82079,7 +82080,7 @@
         <v>173</v>
       </c>
       <c r="N2259" s="45" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V2259" s="45"/>
     </row>
@@ -82103,7 +82104,7 @@
         <v>174</v>
       </c>
       <c r="N2260" s="45" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="V2260" s="45"/>
     </row>
@@ -82133,7 +82134,7 @@
         <v>17</v>
       </c>
       <c r="V2261" s="45" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2262" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82162,7 +82163,7 @@
         <v>18</v>
       </c>
       <c r="V2262" s="45" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="2263" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82236,14 +82237,14 @@
         <v>179</v>
       </c>
       <c r="N2265" s="45" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="O2265" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P2265" s="14"/>
       <c r="V2265" s="45" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2266" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82266,7 +82267,7 @@
         <v>180</v>
       </c>
       <c r="N2266" s="45" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V2266" s="45"/>
     </row>
@@ -82290,7 +82291,7 @@
         <v>181</v>
       </c>
       <c r="N2267" s="45" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V2267" s="45"/>
     </row>
@@ -82314,7 +82315,7 @@
         <v>182</v>
       </c>
       <c r="N2268" s="45" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V2268" s="45"/>
     </row>
@@ -82338,7 +82339,7 @@
         <v>183</v>
       </c>
       <c r="N2269" s="45" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V2269" s="45"/>
     </row>
@@ -82392,7 +82393,7 @@
         <v>18</v>
       </c>
       <c r="V2271" s="45" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="2272" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82439,7 +82440,7 @@
         <v>187</v>
       </c>
       <c r="N2273" s="45" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V2273" s="45"/>
     </row>
@@ -82487,14 +82488,14 @@
         <v>189</v>
       </c>
       <c r="N2275" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O2275" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P2275" s="14"/>
       <c r="V2275" s="45" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2276" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82517,7 +82518,7 @@
         <v>190</v>
       </c>
       <c r="N2276" s="45" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="P2276" s="14" t="s">
         <v>18</v>
@@ -82526,7 +82527,7 @@
         <v>174</v>
       </c>
       <c r="V2276" s="45" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="2277" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82549,7 +82550,7 @@
         <v>191</v>
       </c>
       <c r="N2277" s="45" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="V2277" s="45"/>
     </row>
@@ -82621,13 +82622,13 @@
         <v>194</v>
       </c>
       <c r="N2280" s="45" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P2280" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2280" s="45" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2281" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82674,14 +82675,14 @@
         <v>196</v>
       </c>
       <c r="N2282" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O2282" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P2282" s="14"/>
       <c r="V2282" s="45" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2283" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82704,7 +82705,7 @@
         <v>197</v>
       </c>
       <c r="N2283" s="45" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="U2283" s="7" t="s">
         <v>84</v>
@@ -82731,7 +82732,7 @@
         <v>198</v>
       </c>
       <c r="N2284" s="45" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V2284" s="45"/>
     </row>
@@ -82779,13 +82780,13 @@
         <v>200</v>
       </c>
       <c r="N2286" s="46" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="P2286" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2286" s="46" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="2287" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82883,13 +82884,13 @@
         <v>204</v>
       </c>
       <c r="N2290" s="45" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="P2290" s="14" t="s">
         <v>18</v>
       </c>
       <c r="V2290" s="45" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="2291" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -82912,7 +82913,7 @@
         <v>205</v>
       </c>
       <c r="N2291" s="45" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V2291" s="45"/>
     </row>
@@ -82960,7 +82961,7 @@
         <v>207</v>
       </c>
       <c r="N2293" s="45" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V2293" s="45"/>
     </row>
@@ -82993,11 +82994,11 @@
         <v>18</v>
       </c>
       <c r="V2294" s="45" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XES2294"/>
+  <autoFilter ref="A1:XES2294" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDA17B4-55FB-41AC-AB4B-59ED2790C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1546D1-F37A-47C1-8EE2-3930F839D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1922">
   <si>
     <t>PS</t>
   </si>
@@ -5796,29 +5796,6 @@
   </si>
   <si>
     <t>P%N</t>
-  </si>
-  <si>
-    <r>
-      <t>puq</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>qShya$m</t>
-    </r>
   </si>
   <si>
     <t>aqgna itya#gne</t>
@@ -5999,12 +5976,11 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6026,12 +6002,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6075,7 +6045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6274,16 +6244,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6296,14 +6263,11 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6587,8 +6551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2198" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2285" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="N2203" sqref="N2203"/>
     </sheetView>
@@ -7066,19 +7030,19 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="68" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="44" t="s">
@@ -7567,7 +7531,7 @@
       <c r="N12" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="O12" s="76" t="s">
+      <c r="O12" s="75" t="s">
         <v>1</v>
       </c>
       <c r="P12" s="14"/>
@@ -17921,8 +17885,8 @@
         <f t="shared" si="14"/>
         <v>73</v>
       </c>
-      <c r="N277" s="77" t="s">
-        <v>1920</v>
+      <c r="N277" s="76" t="s">
+        <v>308</v>
       </c>
       <c r="O277" s="6"/>
       <c r="P277" s="7"/>
@@ -22694,7 +22658,7 @@
     </row>
     <row r="399" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A399" s="61"/>
-      <c r="D399" s="74" t="s">
+      <c r="D399" s="73" t="s">
         <v>1916</v>
       </c>
       <c r="E399" s="21"/>
@@ -22739,7 +22703,7 @@
     </row>
     <row r="400" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A400" s="61"/>
-      <c r="D400" s="74" t="s">
+      <c r="D400" s="73" t="s">
         <v>1916</v>
       </c>
       <c r="E400" s="21"/>
@@ -22938,7 +22902,7 @@
     </row>
     <row r="405" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A405" s="61"/>
-      <c r="D405" s="75"/>
+      <c r="D405" s="74"/>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
       <c r="G405" s="21"/>
@@ -29309,7 +29273,7 @@
         <f t="shared" si="26"/>
         <v>94</v>
       </c>
-      <c r="N568" s="71" t="s">
+      <c r="N568" s="70" t="s">
         <v>402</v>
       </c>
       <c r="O568" s="6"/>
@@ -29346,7 +29310,7 @@
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
-      <c r="N569" s="71" t="s">
+      <c r="N569" s="70" t="s">
         <v>521</v>
       </c>
       <c r="O569" s="6"/>
@@ -29387,7 +29351,7 @@
         <f t="shared" si="26"/>
         <v>96</v>
       </c>
-      <c r="N570" s="71" t="s">
+      <c r="N570" s="70" t="s">
         <v>295</v>
       </c>
       <c r="O570" s="6"/>
@@ -29698,7 +29662,7 @@
         <f t="shared" si="26"/>
         <v>104</v>
       </c>
-      <c r="N578" s="71" t="s">
+      <c r="N578" s="70" t="s">
         <v>402</v>
       </c>
       <c r="O578" s="7"/>
@@ -29735,7 +29699,7 @@
         <f t="shared" si="26"/>
         <v>105</v>
       </c>
-      <c r="N579" s="71" t="s">
+      <c r="N579" s="70" t="s">
         <v>521</v>
       </c>
       <c r="O579" s="6"/>
@@ -29776,7 +29740,7 @@
         <f t="shared" ref="M580:M643" si="29">+M579+1</f>
         <v>106</v>
       </c>
-      <c r="N580" s="71" t="s">
+      <c r="N580" s="70" t="s">
         <v>295</v>
       </c>
       <c r="O580" s="6"/>
@@ -55073,7 +55037,7 @@
         <v>84</v>
       </c>
       <c r="V1318" s="46" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1319" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -73433,7 +73397,7 @@
       <c r="N1933" s="57" t="s">
         <v>1121</v>
       </c>
-      <c r="O1933" s="72"/>
+      <c r="O1933" s="71"/>
       <c r="S1933" s="7" t="s">
         <v>180</v>
       </c>
@@ -73467,8 +73431,8 @@
       <c r="N1934" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="O1934" s="72"/>
-      <c r="P1934" s="73" t="s">
+      <c r="O1934" s="71"/>
+      <c r="P1934" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V1934" s="45" t="s">
@@ -77603,7 +77567,7 @@
         <f t="shared" si="98"/>
         <v>4</v>
       </c>
-      <c r="N2090" s="68" t="s">
+      <c r="N2090" s="70" t="s">
         <v>934</v>
       </c>
       <c r="U2090" s="7" t="s">
@@ -77630,7 +77594,7 @@
         <f t="shared" si="98"/>
         <v>5</v>
       </c>
-      <c r="N2091" s="68" t="s">
+      <c r="N2091" s="70" t="s">
         <v>1196</v>
       </c>
       <c r="V2091" s="45"/>
@@ -77654,7 +77618,7 @@
         <f t="shared" si="98"/>
         <v>6</v>
       </c>
-      <c r="N2092" s="68" t="s">
+      <c r="N2092" s="70" t="s">
         <v>1197</v>
       </c>
       <c r="O2092" s="7" t="s">
@@ -80549,7 +80513,7 @@
         <f t="shared" si="104"/>
         <v>117</v>
       </c>
-      <c r="N2203" s="78" t="s">
+      <c r="N2203" s="57" t="s">
         <v>341</v>
       </c>
       <c r="V2203" s="45"/>
@@ -81581,7 +81545,7 @@
         <v>18</v>
       </c>
       <c r="V2240" s="46" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="2241" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCBFCA-6DC5-4DA6-AFFC-363299CD2098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541642EB-29A4-4813-983D-85069914EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$V$2294</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6115,7 +6115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6328,24 +6328,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6647,7 +6629,7 @@
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S307" sqref="S307"/>
+      <selection pane="bottomLeft" activeCell="Q233" sqref="Q233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -43842,165 +43824,150 @@
     </row>
     <row r="1042" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="H1042" s="31"/>
-      <c r="I1042" s="73" t="s">
+      <c r="I1042" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1042" s="74">
+      <c r="J1042" s="42">
         <v>22</v>
       </c>
-      <c r="K1042" s="75">
+      <c r="K1042" s="5">
         <f t="shared" si="48"/>
         <v>1041</v>
       </c>
-      <c r="L1042" s="75">
+      <c r="L1042" s="5">
         <v>1</v>
       </c>
-      <c r="M1042" s="75">
+      <c r="M1042" s="5">
         <v>1</v>
       </c>
-      <c r="N1042" s="76" t="s">
+      <c r="N1042" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="O1042" s="77"/>
-      <c r="P1042" s="78"/>
-      <c r="Q1042" s="78"/>
-      <c r="R1042" s="78"/>
-      <c r="S1042" s="78"/>
-      <c r="T1042" s="78"/>
-      <c r="U1042" s="78"/>
-      <c r="V1042" s="76" t="s">
+      <c r="O1042" s="6"/>
+      <c r="P1042" s="7"/>
+      <c r="Q1042" s="7"/>
+      <c r="R1042" s="7"/>
+      <c r="V1042" s="40" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="1043" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1043" s="73" t="s">
+      <c r="I1043" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1043" s="74">
+      <c r="J1043" s="42">
         <v>22</v>
       </c>
-      <c r="K1043" s="75">
+      <c r="K1043" s="5">
         <f t="shared" si="48"/>
         <v>1042</v>
       </c>
-      <c r="L1043" s="75">
+      <c r="L1043" s="5">
         <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="M1043" s="75">
+      <c r="M1043" s="5">
         <f t="shared" si="50"/>
         <v>2</v>
       </c>
-      <c r="N1043" s="76" t="s">
+      <c r="N1043" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="O1043" s="77"/>
-      <c r="P1043" s="78"/>
-      <c r="Q1043" s="78"/>
-      <c r="R1043" s="78"/>
-      <c r="S1043" s="78"/>
-      <c r="T1043" s="78"/>
-      <c r="U1043" s="78"/>
-      <c r="V1043" s="76" t="s">
+      <c r="O1043" s="6"/>
+      <c r="P1043" s="7"/>
+      <c r="Q1043" s="7"/>
+      <c r="R1043" s="7"/>
+      <c r="V1043" s="40" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="1044" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1044" s="73" t="s">
+      <c r="I1044" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1044" s="74">
+      <c r="J1044" s="42">
         <v>22</v>
       </c>
-      <c r="K1044" s="75">
+      <c r="K1044" s="5">
         <f t="shared" si="48"/>
         <v>1043</v>
       </c>
-      <c r="L1044" s="75">
+      <c r="L1044" s="5">
         <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="M1044" s="75">
+      <c r="M1044" s="5">
         <f t="shared" si="50"/>
         <v>3</v>
       </c>
-      <c r="N1044" s="76" t="s">
+      <c r="N1044" s="40" t="s">
         <v>760</v>
       </c>
-      <c r="O1044" s="77"/>
-      <c r="P1044" s="78"/>
-      <c r="Q1044" s="78"/>
-      <c r="R1044" s="78"/>
-      <c r="S1044" s="78"/>
-      <c r="T1044" s="78"/>
-      <c r="U1044" s="78"/>
-      <c r="V1044" s="76" t="s">
+      <c r="O1044" s="6"/>
+      <c r="P1044" s="7"/>
+      <c r="Q1044" s="7"/>
+      <c r="R1044" s="7"/>
+      <c r="V1044" s="40" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="1045" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1045" s="73" t="s">
+      <c r="I1045" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1045" s="74">
+      <c r="J1045" s="42">
         <v>22</v>
       </c>
-      <c r="K1045" s="75">
+      <c r="K1045" s="5">
         <f t="shared" si="48"/>
         <v>1044</v>
       </c>
-      <c r="L1045" s="75">
+      <c r="L1045" s="5">
         <f t="shared" si="49"/>
         <v>4</v>
       </c>
-      <c r="M1045" s="75">
+      <c r="M1045" s="5">
         <f t="shared" si="50"/>
         <v>4</v>
       </c>
-      <c r="N1045" s="76" t="s">
+      <c r="N1045" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="O1045" s="77"/>
-      <c r="P1045" s="78"/>
-      <c r="Q1045" s="78"/>
-      <c r="R1045" s="78"/>
-      <c r="S1045" s="78"/>
-      <c r="T1045" s="78"/>
-      <c r="U1045" s="78"/>
-      <c r="V1045" s="76" t="s">
+      <c r="O1045" s="6"/>
+      <c r="P1045" s="7"/>
+      <c r="Q1045" s="7"/>
+      <c r="R1045" s="7"/>
+      <c r="V1045" s="40" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="1046" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="I1046" s="73" t="s">
+      <c r="I1046" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J1046" s="74">
+      <c r="J1046" s="42">
         <v>22</v>
       </c>
-      <c r="K1046" s="75">
+      <c r="K1046" s="5">
         <f t="shared" si="48"/>
         <v>1045</v>
       </c>
-      <c r="L1046" s="75">
+      <c r="L1046" s="5">
         <f t="shared" si="49"/>
         <v>5</v>
       </c>
-      <c r="M1046" s="75">
+      <c r="M1046" s="5">
         <f t="shared" si="50"/>
         <v>5</v>
       </c>
-      <c r="N1046" s="76" t="s">
+      <c r="N1046" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="O1046" s="77"/>
-      <c r="P1046" s="78"/>
-      <c r="Q1046" s="78"/>
-      <c r="R1046" s="78"/>
-      <c r="S1046" s="78"/>
-      <c r="T1046" s="78"/>
-      <c r="U1046" s="78"/>
-      <c r="V1046" s="76" t="s">
+      <c r="O1046" s="6"/>
+      <c r="P1046" s="7"/>
+      <c r="Q1046" s="7"/>
+      <c r="R1046" s="7"/>
+      <c r="V1046" s="40" t="s">
         <v>1908</v>
       </c>
     </row>
@@ -49201,14 +49168,14 @@
         <f t="shared" si="56"/>
         <v>3</v>
       </c>
-      <c r="N1213" s="80" t="s">
+      <c r="N1213" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1213" s="6"/>
       <c r="P1213" s="7"/>
       <c r="Q1213" s="7"/>
       <c r="R1213" s="7"/>
-      <c r="U1213" s="79" t="s">
+      <c r="U1213" s="73" t="s">
         <v>177</v>
       </c>
       <c r="V1213" s="40" t="s">
@@ -49800,14 +49767,14 @@
         <f t="shared" si="59"/>
         <v>22</v>
       </c>
-      <c r="N1232" s="80" t="s">
+      <c r="N1232" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1232" s="6"/>
       <c r="P1232" s="7"/>
       <c r="Q1232" s="7"/>
       <c r="R1232" s="7"/>
-      <c r="U1232" s="79" t="s">
+      <c r="U1232" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1232" s="40" t="s">
@@ -50264,7 +50231,7 @@
         <f t="shared" si="59"/>
         <v>36</v>
       </c>
-      <c r="N1246" s="80" t="s">
+      <c r="N1246" s="74" t="s">
         <v>336</v>
       </c>
       <c r="O1246" s="6"/>
@@ -50297,14 +50264,14 @@
         <f t="shared" si="59"/>
         <v>37</v>
       </c>
-      <c r="N1247" s="80" t="s">
+      <c r="N1247" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1247" s="6"/>
       <c r="P1247" s="7"/>
       <c r="Q1247" s="7"/>
       <c r="R1247" s="7"/>
-      <c r="U1247" s="79" t="s">
+      <c r="U1247" s="73" t="s">
         <v>178</v>
       </c>
       <c r="V1247" s="40" t="s">
@@ -50330,7 +50297,7 @@
         <f t="shared" si="59"/>
         <v>38</v>
       </c>
-      <c r="N1248" s="80" t="s">
+      <c r="N1248" s="74" t="s">
         <v>817</v>
       </c>
       <c r="O1248" s="6"/>
@@ -50480,7 +50447,7 @@
         <f t="shared" si="59"/>
         <v>43</v>
       </c>
-      <c r="N1253" s="80" t="s">
+      <c r="N1253" s="74" t="s">
         <v>252</v>
       </c>
       <c r="O1253" s="6"/>
@@ -50489,7 +50456,7 @@
       </c>
       <c r="Q1253" s="7"/>
       <c r="R1253" s="7"/>
-      <c r="U1253" s="79" t="s">
+      <c r="U1253" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1253" s="40" t="s">
@@ -50545,14 +50512,14 @@
         <f t="shared" si="59"/>
         <v>45</v>
       </c>
-      <c r="N1255" s="80" t="s">
+      <c r="N1255" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1255" s="6"/>
       <c r="P1255" s="7"/>
       <c r="Q1255" s="7"/>
       <c r="R1255" s="7"/>
-      <c r="U1255" s="79" t="s">
+      <c r="U1255" s="73" t="s">
         <v>177</v>
       </c>
       <c r="V1255" s="40" t="s">
@@ -50578,7 +50545,7 @@
         <f t="shared" si="59"/>
         <v>46</v>
       </c>
-      <c r="N1256" s="80" t="s">
+      <c r="N1256" s="74" t="s">
         <v>820</v>
       </c>
       <c r="O1256" s="6"/>
@@ -50668,7 +50635,7 @@
         <f t="shared" si="59"/>
         <v>49</v>
       </c>
-      <c r="N1259" s="80" t="s">
+      <c r="N1259" s="74" t="s">
         <v>624</v>
       </c>
       <c r="O1259" s="6"/>
@@ -50698,14 +50665,14 @@
         <f t="shared" si="59"/>
         <v>50</v>
       </c>
-      <c r="N1260" s="80" t="s">
+      <c r="N1260" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1260" s="6"/>
       <c r="P1260" s="7"/>
       <c r="Q1260" s="7"/>
       <c r="R1260" s="7"/>
-      <c r="U1260" s="79" t="s">
+      <c r="U1260" s="73" t="s">
         <v>178</v>
       </c>
       <c r="V1260" s="40" t="s">
@@ -51169,14 +51136,14 @@
         <f t="shared" si="59"/>
         <v>64</v>
       </c>
-      <c r="N1274" s="80" t="s">
+      <c r="N1274" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1274" s="6"/>
       <c r="P1274" s="7"/>
       <c r="Q1274" s="7"/>
       <c r="R1274" s="7"/>
-      <c r="U1274" s="79" t="s">
+      <c r="U1274" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1274" s="40" t="s">
@@ -51536,14 +51503,14 @@
         <f t="shared" si="62"/>
         <v>75</v>
       </c>
-      <c r="N1285" s="80" t="s">
+      <c r="N1285" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1285" s="6"/>
       <c r="P1285" s="7"/>
       <c r="Q1285" s="7"/>
       <c r="R1285" s="7"/>
-      <c r="U1285" s="79" t="s">
+      <c r="U1285" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1285" s="40" t="s">
@@ -51830,14 +51797,14 @@
         <f t="shared" si="62"/>
         <v>84</v>
       </c>
-      <c r="N1294" s="80" t="s">
+      <c r="N1294" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1294" s="6"/>
       <c r="P1294" s="7"/>
       <c r="Q1294" s="7"/>
       <c r="R1294" s="7"/>
-      <c r="U1294" s="79" t="s">
+      <c r="U1294" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1294" s="40" t="s">
@@ -51987,14 +51954,14 @@
         <f t="shared" si="62"/>
         <v>89</v>
       </c>
-      <c r="N1299" s="80" t="s">
+      <c r="N1299" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1299" s="6"/>
       <c r="P1299" s="7"/>
       <c r="Q1299" s="7"/>
       <c r="R1299" s="7"/>
-      <c r="U1299" s="79" t="s">
+      <c r="U1299" s="73" t="s">
         <v>177</v>
       </c>
       <c r="V1299" s="40" t="s">
@@ -52020,7 +51987,7 @@
         <f t="shared" si="62"/>
         <v>90</v>
       </c>
-      <c r="N1300" s="80" t="s">
+      <c r="N1300" s="74" t="s">
         <v>840</v>
       </c>
       <c r="O1300" s="7" t="s">
@@ -52208,14 +52175,14 @@
         <f t="shared" si="62"/>
         <v>96</v>
       </c>
-      <c r="N1306" s="80" t="s">
+      <c r="N1306" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1306" s="6"/>
       <c r="P1306" s="7"/>
       <c r="Q1306" s="7"/>
       <c r="R1306" s="7"/>
-      <c r="U1306" s="79" t="s">
+      <c r="U1306" s="73" t="s">
         <v>177</v>
       </c>
       <c r="V1306" s="40" t="s">
@@ -52241,7 +52208,7 @@
         <f t="shared" si="62"/>
         <v>97</v>
       </c>
-      <c r="N1307" s="80" t="s">
+      <c r="N1307" s="74" t="s">
         <v>845</v>
       </c>
       <c r="O1307" s="7" t="s">
@@ -52350,7 +52317,7 @@
       <c r="P1310" s="7"/>
       <c r="Q1310" s="7"/>
       <c r="R1310" s="7"/>
-      <c r="U1310" s="79" t="s">
+      <c r="U1310" s="73" t="s">
         <v>95</v>
       </c>
       <c r="V1310" s="40" t="s">
@@ -52621,7 +52588,7 @@
         <f t="shared" si="62"/>
         <v>108</v>
       </c>
-      <c r="N1318" s="80" t="s">
+      <c r="N1318" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1318" s="6"/>
@@ -52630,7 +52597,7 @@
       </c>
       <c r="Q1318" s="7"/>
       <c r="R1318" s="7"/>
-      <c r="U1318" s="79" t="s">
+      <c r="U1318" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1318" s="41" t="s">
@@ -52719,14 +52686,14 @@
         <f t="shared" si="62"/>
         <v>111</v>
       </c>
-      <c r="N1321" s="80" t="s">
+      <c r="N1321" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1321" s="6"/>
       <c r="P1321" s="7"/>
       <c r="Q1321" s="7"/>
       <c r="R1321" s="7"/>
-      <c r="U1321" s="79" t="s">
+      <c r="U1321" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1321" s="40" t="s">
@@ -53125,14 +53092,14 @@
         <f t="shared" si="62"/>
         <v>123</v>
       </c>
-      <c r="N1333" s="80" t="s">
+      <c r="N1333" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1333" s="6"/>
       <c r="P1333" s="7"/>
       <c r="Q1333" s="7"/>
       <c r="R1333" s="7"/>
-      <c r="U1333" s="79" t="s">
+      <c r="U1333" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1333" s="40" t="s">
@@ -54383,7 +54350,7 @@
         <f t="shared" si="65"/>
         <v>162</v>
       </c>
-      <c r="N1372" s="80" t="s">
+      <c r="N1372" s="74" t="s">
         <v>1603</v>
       </c>
       <c r="O1372" s="6"/>
@@ -54392,7 +54359,7 @@
       </c>
       <c r="Q1372" s="7"/>
       <c r="R1372" s="7"/>
-      <c r="U1372" s="79" t="s">
+      <c r="U1372" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1372" s="40" t="s">
@@ -54485,14 +54452,14 @@
         <f t="shared" si="65"/>
         <v>165</v>
       </c>
-      <c r="N1375" s="80" t="s">
+      <c r="N1375" s="74" t="s">
         <v>879</v>
       </c>
       <c r="O1375" s="6"/>
       <c r="P1375" s="7"/>
       <c r="Q1375" s="7"/>
       <c r="R1375" s="7"/>
-      <c r="U1375" s="79" t="s">
+      <c r="U1375" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1375" s="40" t="s">
@@ -54612,14 +54579,14 @@
         <f t="shared" si="65"/>
         <v>169</v>
       </c>
-      <c r="N1379" s="80" t="s">
+      <c r="N1379" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1379" s="6"/>
       <c r="P1379" s="7"/>
       <c r="Q1379" s="7"/>
       <c r="R1379" s="7"/>
-      <c r="U1379" s="79" t="s">
+      <c r="U1379" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1379" s="40" t="s">
@@ -55163,14 +55130,14 @@
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
-      <c r="N1396" s="80" t="s">
+      <c r="N1396" s="74" t="s">
         <v>890</v>
       </c>
       <c r="O1396" s="6"/>
       <c r="P1396" s="7"/>
       <c r="Q1396" s="7"/>
       <c r="R1396" s="7"/>
-      <c r="U1396" s="79" t="s">
+      <c r="U1396" s="73" t="s">
         <v>95</v>
       </c>
       <c r="V1396" s="40" t="s">
@@ -55197,7 +55164,7 @@
         <f t="shared" si="65"/>
         <v>3</v>
       </c>
-      <c r="N1397" s="80" t="s">
+      <c r="N1397" s="74" t="s">
         <v>891</v>
       </c>
       <c r="O1397" s="7" t="s">
@@ -55524,14 +55491,14 @@
         <f t="shared" si="65"/>
         <v>13</v>
       </c>
-      <c r="N1407" s="80" t="s">
+      <c r="N1407" s="74" t="s">
         <v>898</v>
       </c>
       <c r="O1407" s="6"/>
       <c r="P1407" s="7"/>
       <c r="Q1407" s="7"/>
       <c r="R1407" s="7"/>
-      <c r="U1407" s="79" t="s">
+      <c r="U1407" s="73" t="s">
         <v>83</v>
       </c>
       <c r="V1407" s="40" t="s">
@@ -56001,7 +55968,7 @@
         <f t="shared" si="68"/>
         <v>28</v>
       </c>
-      <c r="N1422" s="80" t="s">
+      <c r="N1422" s="74" t="s">
         <v>465</v>
       </c>
       <c r="O1422" s="6"/>
@@ -56010,7 +55977,7 @@
       </c>
       <c r="Q1422" s="7"/>
       <c r="R1422" s="7"/>
-      <c r="U1422" s="79" t="s">
+      <c r="U1422" s="73" t="s">
         <v>1918</v>
       </c>
       <c r="V1422" s="40" t="s">
@@ -56435,14 +56402,14 @@
         <f t="shared" si="68"/>
         <v>41</v>
       </c>
-      <c r="N1435" s="80" t="s">
+      <c r="N1435" s="74" t="s">
         <v>199</v>
       </c>
       <c r="O1435" s="6"/>
       <c r="P1435" s="7"/>
       <c r="Q1435" s="7"/>
       <c r="R1435" s="7"/>
-      <c r="U1435" s="79" t="s">
+      <c r="U1435" s="73" t="s">
         <v>95</v>
       </c>
       <c r="V1435" s="40" t="s">
@@ -56469,7 +56436,7 @@
         <f t="shared" si="68"/>
         <v>42</v>
       </c>
-      <c r="N1436" s="80" t="s">
+      <c r="N1436" s="74" t="s">
         <v>911</v>
       </c>
       <c r="O1436" s="6"/>
@@ -56693,14 +56660,14 @@
         <f t="shared" si="68"/>
         <v>49</v>
       </c>
-      <c r="N1443" s="80" t="s">
+      <c r="N1443" s="74" t="s">
         <v>623</v>
       </c>
       <c r="O1443" s="7"/>
       <c r="P1443" s="7"/>
       <c r="Q1443" s="7"/>
       <c r="R1443" s="7"/>
-      <c r="U1443" s="79" t="s">
+      <c r="U1443" s="73" t="s">
         <v>95</v>
       </c>
       <c r="V1443" s="40" t="s">
@@ -56727,7 +56694,7 @@
         <f t="shared" si="68"/>
         <v>50</v>
       </c>
-      <c r="N1444" s="80" t="s">
+      <c r="N1444" s="74" t="s">
         <v>259</v>
       </c>
       <c r="O1444" s="6"/>
@@ -57081,14 +57048,14 @@
         <f t="shared" si="68"/>
         <v>61</v>
       </c>
-      <c r="N1455" s="80" t="s">
+      <c r="N1455" s="74" t="s">
         <v>890</v>
       </c>
       <c r="O1455" s="6"/>
       <c r="P1455" s="7"/>
       <c r="Q1455" s="7"/>
       <c r="R1455" s="7"/>
-      <c r="U1455" s="79" t="s">
+      <c r="U1455" s="73" t="s">
         <v>95</v>
       </c>
       <c r="V1455" s="40" t="s">
@@ -57115,7 +57082,7 @@
         <f t="shared" si="68"/>
         <v>62</v>
       </c>
-      <c r="N1456" s="80" t="s">
+      <c r="N1456" s="74" t="s">
         <v>243</v>
       </c>
       <c r="O1456" s="6"/>
@@ -57386,14 +57353,14 @@
         <f t="shared" si="68"/>
         <v>70</v>
       </c>
-      <c r="N1464" s="80" t="s">
+      <c r="N1464" s="74" t="s">
         <v>890</v>
       </c>
       <c r="O1464" s="6"/>
       <c r="P1464" s="7"/>
       <c r="Q1464" s="7"/>
       <c r="R1464" s="7"/>
-      <c r="U1464" s="79" t="s">
+      <c r="U1464" s="73" t="s">
         <v>1919</v>
       </c>
       <c r="V1464" s="40" t="s">
@@ -57420,7 +57387,7 @@
         <f t="shared" si="68"/>
         <v>71</v>
       </c>
-      <c r="N1465" s="80" t="s">
+      <c r="N1465" s="74" t="s">
         <v>925</v>
       </c>
       <c r="O1465" s="6" t="s">
@@ -57674,14 +57641,14 @@
         <f t="shared" si="68"/>
         <v>79</v>
       </c>
-      <c r="N1473" s="76" t="s">
+      <c r="N1473" s="40" t="s">
         <v>929</v>
       </c>
       <c r="O1473" s="6"/>
       <c r="P1473" s="7"/>
       <c r="Q1473" s="7"/>
       <c r="R1473" s="7"/>
-      <c r="U1473" s="78" t="s">
+      <c r="U1473" s="7" t="s">
         <v>95</v>
       </c>
       <c r="V1473" s="40" t="s">
@@ -57708,7 +57675,7 @@
         <f t="shared" si="68"/>
         <v>80</v>
       </c>
-      <c r="N1474" s="76" t="s">
+      <c r="N1474" s="40" t="s">
         <v>272</v>
       </c>
       <c r="O1474" s="7"/>
@@ -57717,7 +57684,6 @@
       </c>
       <c r="Q1474" s="7"/>
       <c r="R1474" s="7"/>
-      <c r="U1474" s="78"/>
       <c r="V1474" s="40" t="s">
         <v>1772</v>
       </c>
@@ -57743,14 +57709,13 @@
         <f t="shared" si="68"/>
         <v>81</v>
       </c>
-      <c r="N1475" s="76" t="s">
+      <c r="N1475" s="40" t="s">
         <v>930</v>
       </c>
       <c r="O1475" s="6"/>
       <c r="P1475" s="7"/>
       <c r="Q1475" s="7"/>
       <c r="R1475" s="7"/>
-      <c r="U1475" s="78"/>
       <c r="V1475" s="40" t="s">
         <v>1908</v>
       </c>
@@ -57776,14 +57741,13 @@
         <f t="shared" ref="M1476:M1539" si="71">+M1475+1</f>
         <v>82</v>
       </c>
-      <c r="N1476" s="76" t="s">
+      <c r="N1476" s="40" t="s">
         <v>931</v>
       </c>
       <c r="O1476" s="6"/>
       <c r="P1476" s="7"/>
       <c r="Q1476" s="7"/>
       <c r="R1476" s="7"/>
-      <c r="U1476" s="78"/>
       <c r="V1476" s="40" t="s">
         <v>1908</v>
       </c>
@@ -57811,14 +57775,13 @@
         <f t="shared" si="71"/>
         <v>83</v>
       </c>
-      <c r="N1477" s="76" t="s">
+      <c r="N1477" s="40" t="s">
         <v>932</v>
       </c>
       <c r="O1477" s="6"/>
       <c r="P1477" s="7"/>
       <c r="Q1477" s="7"/>
       <c r="R1477" s="7"/>
-      <c r="U1477" s="78"/>
       <c r="V1477" s="40" t="s">
         <v>1908</v>
       </c>
@@ -57846,14 +57809,14 @@
         <f t="shared" si="71"/>
         <v>84</v>
       </c>
-      <c r="N1478" s="76" t="s">
+      <c r="N1478" s="40" t="s">
         <v>929</v>
       </c>
       <c r="O1478" s="6"/>
       <c r="P1478" s="7"/>
       <c r="Q1478" s="7"/>
       <c r="R1478" s="7"/>
-      <c r="U1478" s="78" t="s">
+      <c r="U1478" s="7" t="s">
         <v>95</v>
       </c>
       <c r="V1478" s="40" t="s">
@@ -57883,7 +57846,7 @@
         <f t="shared" si="71"/>
         <v>85</v>
       </c>
-      <c r="N1479" s="76" t="s">
+      <c r="N1479" s="40" t="s">
         <v>272</v>
       </c>
       <c r="O1479" s="6"/>
@@ -61950,7 +61913,7 @@
         <f t="shared" si="77"/>
         <v>215</v>
       </c>
-      <c r="N1609" s="81" t="s">
+      <c r="N1609" s="75" t="s">
         <v>989</v>
       </c>
       <c r="O1609" s="7" t="s">
@@ -61983,7 +61946,7 @@
         <f t="shared" si="77"/>
         <v>216</v>
       </c>
-      <c r="N1610" s="81" t="s">
+      <c r="N1610" s="75" t="s">
         <v>204</v>
       </c>
       <c r="V1610" s="40" t="s">
@@ -67037,7 +67000,7 @@
         <f t="shared" si="83"/>
         <v>115</v>
       </c>
-      <c r="N1793" s="76" t="s">
+      <c r="N1793" s="40" t="s">
         <v>535</v>
       </c>
       <c r="V1793" s="40" t="s">
@@ -69298,10 +69261,10 @@
         <f t="shared" si="89"/>
         <v>26</v>
       </c>
-      <c r="N1874" s="76" t="s">
+      <c r="N1874" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="U1874" s="78" t="s">
+      <c r="U1874" s="7" t="s">
         <v>95</v>
       </c>
       <c r="V1874" s="40" t="s">
@@ -69327,7 +69290,7 @@
         <f t="shared" si="89"/>
         <v>27</v>
       </c>
-      <c r="N1875" s="76" t="s">
+      <c r="N1875" s="40" t="s">
         <v>336</v>
       </c>
       <c r="V1875" s="40" t="s">
@@ -69839,7 +69802,7 @@
         <f t="shared" si="89"/>
         <v>45</v>
       </c>
-      <c r="N1893" s="76" t="s">
+      <c r="N1893" s="40" t="s">
         <v>535</v>
       </c>
       <c r="V1893" s="40" t="s">
@@ -70060,7 +70023,7 @@
       <c r="N1901" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="U1901" s="82" t="s">
+      <c r="U1901" s="76" t="s">
         <v>95</v>
       </c>
       <c r="V1901" s="40" t="s">
@@ -71454,7 +71417,7 @@
         <v>0</v>
       </c>
       <c r="P1950" s="14"/>
-      <c r="U1950" s="82" t="s">
+      <c r="U1950" s="76" t="s">
         <v>83</v>
       </c>
       <c r="V1950" s="40" t="s">
@@ -71656,7 +71619,7 @@
       <c r="N1957" s="72" t="s">
         <v>1126</v>
       </c>
-      <c r="U1957" s="82" t="s">
+      <c r="U1957" s="76" t="s">
         <v>95</v>
       </c>
       <c r="V1957" s="40" t="s">
@@ -72360,7 +72323,7 @@
       <c r="N1983" s="72" t="s">
         <v>1049</v>
       </c>
-      <c r="U1983" s="82" t="s">
+      <c r="U1983" s="76" t="s">
         <v>95</v>
       </c>
       <c r="V1983" s="40" t="s">
@@ -73161,7 +73124,7 @@
       <c r="N2010" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="U2010" s="82" t="s">
+      <c r="U2010" s="76" t="s">
         <v>95</v>
       </c>
       <c r="V2010" s="40" t="s">
@@ -73190,7 +73153,7 @@
       <c r="N2011" s="72" t="s">
         <v>1150</v>
       </c>
-      <c r="U2011" s="82" t="s">
+      <c r="U2011" s="76" t="s">
         <v>83</v>
       </c>
       <c r="V2011" s="40" t="s">
@@ -73794,7 +73757,7 @@
         <f t="shared" si="95"/>
         <v>185</v>
       </c>
-      <c r="N2033" s="83" t="s">
+      <c r="N2033" s="77" t="s">
         <v>1160</v>
       </c>
       <c r="V2033" s="40" t="s">
@@ -73823,7 +73786,7 @@
         <f t="shared" si="95"/>
         <v>186</v>
       </c>
-      <c r="N2034" s="83" t="s">
+      <c r="N2034" s="77" t="s">
         <v>251</v>
       </c>
       <c r="O2034" s="6" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369BF56-A6EE-44E5-8175-A09747833E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF47A69-0441-444D-A0BE-414D847B9F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.1'!$A$1:$V$2294</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5834,18 +5834,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>raqSmIn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
+    <t>raqSmIn</t>
   </si>
 </sst>
 </file>
@@ -6126,7 +6115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6355,9 +6344,19 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6641,9 +6640,9 @@
   <dimension ref="A1:V2294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1360" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1333" sqref="U1333"/>
+      <selection pane="bottomLeft" activeCell="I1366" sqref="I1366:T1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -54147,95 +54146,101 @@
     </row>
     <row r="1366" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1366" s="36"/>
-      <c r="I1366" s="43" t="s">
+      <c r="I1366" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1366" s="42">
+      <c r="J1366" s="80">
         <v>28</v>
       </c>
-      <c r="K1366" s="5">
+      <c r="K1366" s="81">
         <f t="shared" si="63"/>
         <v>1365</v>
       </c>
-      <c r="L1366" s="5">
+      <c r="L1366" s="81">
         <f t="shared" si="64"/>
         <v>6</v>
       </c>
-      <c r="M1366" s="5">
+      <c r="M1366" s="81">
         <f t="shared" si="65"/>
         <v>156</v>
       </c>
-      <c r="N1366" s="40" t="s">
+      <c r="N1366" s="77" t="s">
         <v>873</v>
       </c>
-      <c r="O1366" s="7" t="s">
+      <c r="O1366" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P1366" s="14"/>
-      <c r="Q1366" s="7"/>
-      <c r="R1366" s="7"/>
+      <c r="P1366" s="82"/>
+      <c r="Q1366" s="12"/>
+      <c r="R1366" s="12"/>
+      <c r="S1366" s="12"/>
+      <c r="T1366" s="12"/>
       <c r="V1366" s="40" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="1367" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1367" s="36"/>
-      <c r="I1367" s="43" t="s">
+      <c r="I1367" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1367" s="42">
+      <c r="J1367" s="80">
         <v>28</v>
       </c>
-      <c r="K1367" s="5">
+      <c r="K1367" s="81">
         <f t="shared" si="63"/>
         <v>1366</v>
       </c>
-      <c r="L1367" s="5">
+      <c r="L1367" s="81">
         <f t="shared" si="64"/>
         <v>7</v>
       </c>
-      <c r="M1367" s="5">
+      <c r="M1367" s="81">
         <f t="shared" si="65"/>
         <v>157</v>
       </c>
-      <c r="N1367" s="40" t="s">
+      <c r="N1367" s="77" t="s">
         <v>874</v>
       </c>
-      <c r="O1367" s="6"/>
-      <c r="P1367" s="7"/>
-      <c r="Q1367" s="7"/>
-      <c r="R1367" s="7"/>
+      <c r="O1367" s="11"/>
+      <c r="P1367" s="12"/>
+      <c r="Q1367" s="12"/>
+      <c r="R1367" s="12"/>
+      <c r="S1367" s="12"/>
+      <c r="T1367" s="12"/>
       <c r="V1367" s="40" t="s">
         <v>1907</v>
       </c>
     </row>
     <row r="1368" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1368" s="36"/>
-      <c r="I1368" s="43" t="s">
+      <c r="I1368" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1368" s="42">
+      <c r="J1368" s="80">
         <v>28</v>
       </c>
-      <c r="K1368" s="5">
+      <c r="K1368" s="81">
         <f t="shared" si="63"/>
         <v>1367</v>
       </c>
-      <c r="L1368" s="5">
+      <c r="L1368" s="81">
         <f t="shared" si="64"/>
         <v>8</v>
       </c>
-      <c r="M1368" s="5">
+      <c r="M1368" s="81">
         <f t="shared" si="65"/>
         <v>158</v>
       </c>
-      <c r="N1368" s="40" t="s">
+      <c r="N1368" s="77" t="s">
         <v>573</v>
       </c>
-      <c r="O1368" s="6"/>
-      <c r="P1368" s="7"/>
-      <c r="Q1368" s="7"/>
-      <c r="R1368" s="7"/>
+      <c r="O1368" s="11"/>
+      <c r="P1368" s="12"/>
+      <c r="Q1368" s="12"/>
+      <c r="R1368" s="12"/>
+      <c r="S1368" s="12"/>
+      <c r="T1368" s="12"/>
       <c r="V1368" s="40" t="s">
         <v>1907</v>
       </c>
@@ -54243,31 +54248,33 @@
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1369" s="36"/>
       <c r="H1369" s="31"/>
-      <c r="I1369" s="43" t="s">
+      <c r="I1369" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1369" s="42">
+      <c r="J1369" s="80">
         <v>28</v>
       </c>
-      <c r="K1369" s="5">
+      <c r="K1369" s="81">
         <f t="shared" si="63"/>
         <v>1368</v>
       </c>
-      <c r="L1369" s="5">
+      <c r="L1369" s="81">
         <f t="shared" si="64"/>
         <v>9</v>
       </c>
-      <c r="M1369" s="5">
+      <c r="M1369" s="81">
         <f t="shared" si="65"/>
         <v>159</v>
       </c>
-      <c r="N1369" s="40" t="s">
+      <c r="N1369" s="77" t="s">
         <v>875</v>
       </c>
-      <c r="O1369" s="6"/>
-      <c r="P1369" s="7"/>
-      <c r="Q1369" s="7"/>
-      <c r="R1369" s="7"/>
+      <c r="O1369" s="11"/>
+      <c r="P1369" s="12"/>
+      <c r="Q1369" s="12"/>
+      <c r="R1369" s="12"/>
+      <c r="S1369" s="12"/>
+      <c r="T1369" s="12"/>
       <c r="V1369" s="40" t="s">
         <v>1907</v>
       </c>
@@ -54276,31 +54283,33 @@
       <c r="C1370" s="36"/>
       <c r="E1370" s="37"/>
       <c r="H1370" s="31"/>
-      <c r="I1370" s="43" t="s">
+      <c r="I1370" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1370" s="42">
+      <c r="J1370" s="80">
         <v>28</v>
       </c>
-      <c r="K1370" s="5">
+      <c r="K1370" s="81">
         <f t="shared" si="63"/>
         <v>1369</v>
       </c>
-      <c r="L1370" s="5">
+      <c r="L1370" s="81">
         <f t="shared" si="64"/>
         <v>10</v>
       </c>
-      <c r="M1370" s="5">
+      <c r="M1370" s="81">
         <f t="shared" si="65"/>
         <v>160</v>
       </c>
-      <c r="N1370" s="40" t="s">
+      <c r="N1370" s="77" t="s">
         <v>866</v>
       </c>
-      <c r="O1370" s="6"/>
-      <c r="P1370" s="7"/>
-      <c r="Q1370" s="7"/>
-      <c r="R1370" s="7"/>
+      <c r="O1370" s="11"/>
+      <c r="P1370" s="12"/>
+      <c r="Q1370" s="12"/>
+      <c r="R1370" s="12"/>
+      <c r="S1370" s="12"/>
+      <c r="T1370" s="12"/>
       <c r="V1370" s="40" t="s">
         <v>1907</v>
       </c>
@@ -54309,33 +54318,35 @@
       <c r="C1371" s="36"/>
       <c r="E1371" s="37"/>
       <c r="H1371" s="31"/>
-      <c r="I1371" s="43" t="s">
+      <c r="I1371" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="J1371" s="42">
+      <c r="J1371" s="80">
         <v>28</v>
       </c>
-      <c r="K1371" s="5">
+      <c r="K1371" s="81">
         <f t="shared" si="63"/>
         <v>1370</v>
       </c>
-      <c r="L1371" s="5">
+      <c r="L1371" s="81">
         <f t="shared" si="64"/>
         <v>11</v>
       </c>
-      <c r="M1371" s="5">
+      <c r="M1371" s="81">
         <f t="shared" si="65"/>
         <v>161</v>
       </c>
-      <c r="N1371" s="40" t="s">
+      <c r="N1371" s="77" t="s">
         <v>876</v>
       </c>
-      <c r="O1371" s="7" t="s">
+      <c r="O1371" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P1371" s="14"/>
-      <c r="Q1371" s="7"/>
-      <c r="R1371" s="7"/>
+      <c r="P1371" s="82"/>
+      <c r="Q1371" s="12"/>
+      <c r="R1371" s="12"/>
+      <c r="S1371" s="12"/>
+      <c r="T1371" s="12"/>
       <c r="U1371" s="7" t="s">
         <v>171</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED0813-CE6A-4679-937A-9F827C56AE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EEE035-715B-4DB3-B134-800F4A811BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6630,9 +6630,9 @@
   <dimension ref="A1:V2294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1306" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U799" sqref="U799"/>
+      <selection pane="bottomLeft" activeCell="U1314" sqref="U1314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -52608,7 +52608,7 @@
       <c r="Q1318" s="7"/>
       <c r="R1318" s="7"/>
       <c r="U1318" s="73" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="V1318" s="41" t="s">
         <v>1900</v>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA8BF1E-182C-4565-9F62-97483DBD4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4EDC70-6FCE-4D96-9143-F1FCE997D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8356" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357" uniqueCount="1922">
   <si>
     <t>PS</t>
   </si>
@@ -6645,9 +6645,9 @@
   <dimension ref="A1:V2294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1511" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1643" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V1524" sqref="V1524"/>
+      <selection pane="bottomLeft" activeCell="N1655" sqref="N1655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -63193,6 +63193,9 @@
       <c r="N1654" s="40" t="s">
         <v>1005</v>
       </c>
+      <c r="U1654" s="64" t="s">
+        <v>95</v>
+      </c>
       <c r="V1654" s="40" t="s">
         <v>1902</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2497362-7A78-4123-AE6E-522034032232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5122DA6-7797-454E-B068-F12734AEC011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8361" uniqueCount="1923">
   <si>
     <t>PS</t>
   </si>
@@ -5853,6 +5853,9 @@
   </si>
   <si>
     <t>te</t>
+  </si>
+  <si>
+    <t>S[r]</t>
   </si>
 </sst>
 </file>
@@ -6647,10 +6650,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2198" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N2204" sqref="N2204"/>
+      <selection pane="bottomLeft" activeCell="U615" sqref="U615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -24630,8 +24633,12 @@
       <c r="P464" s="7"/>
       <c r="Q464" s="7"/>
       <c r="R464" s="7"/>
-      <c r="S464" s="7"/>
-      <c r="T464" s="7"/>
+      <c r="S464" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T464" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="U464" s="70" t="s">
         <v>83</v>
       </c>
@@ -29196,8 +29203,12 @@
       <c r="P589" s="7"/>
       <c r="Q589" s="7"/>
       <c r="R589" s="7"/>
-      <c r="S589" s="7"/>
-      <c r="T589" s="7"/>
+      <c r="S589" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T589" s="58" t="s">
+        <v>1922</v>
+      </c>
       <c r="U589" s="7"/>
       <c r="V589" s="40" t="s">
         <v>1892</v>
@@ -30142,7 +30153,9 @@
       <c r="R615" s="7"/>
       <c r="S615" s="7"/>
       <c r="T615" s="7"/>
-      <c r="U615" s="7"/>
+      <c r="U615" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="V615" s="40" t="s">
         <v>1334</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.1 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2C49C8-23CD-435F-A822-6F5168F623B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31626E6-8596-4232-AA81-2AFCDC30DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6136,7 +6136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6367,6 +6367,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6651,9 +6654,9 @@
   <dimension ref="A1:V2294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1807" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P1109" sqref="P1109"/>
+      <selection pane="bottomLeft" activeCell="U1819" sqref="U1819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -67772,8 +67775,8 @@
       <c r="N1819" s="61" t="s">
         <v>464</v>
       </c>
-      <c r="U1819" s="71" t="s">
-        <v>83</v>
+      <c r="U1819" s="79" t="s">
+        <v>177</v>
       </c>
       <c r="V1819" s="40" t="s">
         <v>1891</v>
